--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-45109.6373240619</v>
+        <v>-56469.85120345788</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20000176.21156555</v>
+        <v>20000176.21156557</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.99888905074579</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>23.86249467691518</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>23.86249467691518</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="H11" t="n">
-        <v>23.86249467691518</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>14.01919626068105</v>
       </c>
       <c r="S11" t="n">
-        <v>21.01808531142688</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1457,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>22.31050083220386</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>11.00813298185075</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>23.86249467691518</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="I12" t="n">
-        <v>10.00995232957613</v>
+        <v>10.00995232957614</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>12.56012682656195</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="T12" t="n">
-        <v>23.86249467691518</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>23.86249467691518</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.190233140434716</v>
+        <v>3.479784596074249</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.289551455639582</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1609,28 +1609,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>23.86249467691515</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>23.86249467691515</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>23.86249467691518</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>19.99031113423593</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.027774177190928</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.86249467691518</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>23.86249467691515</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>23.86249467691518</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>21.01808531142689</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1694,22 +1694,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>7.307209712256346</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.86249467691518</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>23.86249467691518</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>23.86249467691518</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.00995232957613</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.700923269594412</v>
+        <v>3.700923269594416</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>12.56012682656194</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>23.86249467691515</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>4.757035215270503</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>23.86249467691515</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>23.86249467691515</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3.479784596074287</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.289551455639582</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.190233140434715</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1843,26 +1843,26 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>30.47290791452693</v>
       </c>
-      <c r="C17" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>30.47290791452693</v>
       </c>
-      <c r="D17" t="n">
-        <v>26.8405372911153</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>30.47290791452693</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>30.47290791452693</v>
+        <v>26.84053729111531</v>
       </c>
     </row>
     <row r="18">
@@ -1931,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>14.76942305139343</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>30.47290791452693</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>30.47290791452693</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>30.47290791452693</v>
       </c>
       <c r="I18" t="n">
-        <v>9.571990821914873</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>2.499123417806999</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>11.77034553962528</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>12.57106833368304</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>30.47290791452693</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>30.47290791452693</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>8.485091266345547</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>24.05300634466592</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>30.47290791452693</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>20.73465952076845</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>12.52577934020788</v>
       </c>
       <c r="S20" t="n">
-        <v>30.47290791452693</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>14.31475795090743</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>12.57106833368303</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>30.47290791452693</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>26.8405372911153</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2.499123417806999</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>11.77034553962528</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>30.47290791452693</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>30.47290791452693</v>
+        <v>30.47290791452694</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>8.485091266345533</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>8.485091266345545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>30.47290791452691</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>30.47290791452691</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>30.47290791452691</v>
+        <v>14.31475795090743</v>
       </c>
       <c r="H23" t="n">
-        <v>26.8405372911153</v>
+        <v>30.47290791452695</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>12.52577934020788</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>30.47290791452695</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>30.47290791452695</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>30.47290791452691</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>26.8405372911153</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.499123417806999</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>24.34141387330833</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>30.47290791452695</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>30.47290791452695</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>30.47290791452695</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>30.47290791452691</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>30.47290791452691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>8.485091266345547</v>
       </c>
       <c r="G25" t="n">
-        <v>8.485091266345535</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>14.31475795090742</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>20.73465952076844</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>12.52577934020788</v>
+        <v>6.105877770346878</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>30.47290791452692</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>30.47290791452692</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>30.47290791452692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,28 +2636,28 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>30.47290791452692</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>30.47290791452692</v>
+        <v>26.84053729111536</v>
       </c>
       <c r="H27" t="n">
-        <v>14.76942305139343</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="I27" t="n">
-        <v>9.571990821914873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.499123417806999</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>30.47290791452692</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>8.485091266345545</v>
       </c>
       <c r="F28" t="n">
-        <v>8.485091266345531</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="H29" t="n">
-        <v>26.84053729111529</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>12.52577934020788</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>30.47290791452691</v>
+        <v>14.31475795090744</v>
       </c>
       <c r="U29" t="n">
-        <v>30.47290791452691</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>30.47290791452691</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2918,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>11.77034553962528</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>30.47290791452691</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="T30" t="n">
-        <v>15.07019175149</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>30.47290791452691</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="V30" t="n">
-        <v>30.47290791452691</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>26.84053729111531</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>8.485091266345535</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>8.485091266345531</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>30.47290791452691</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>14.31475795090741</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>30.47290791452691</v>
+        <v>26.84053729111532</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="H32" t="n">
-        <v>30.47290791452691</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>12.52577934020788</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3122,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>5.498200929575154</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>9.571990821914873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>11.77034553962528</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>30.47290791452691</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="U33" t="n">
-        <v>26.84053729111539</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="V33" t="n">
-        <v>30.47290791452691</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="W33" t="n">
-        <v>30.47290791452691</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>8.485091266345535</v>
+        <v>8.485091266345545</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.105877770346878</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>20.73465952076844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>12.52577934020788</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>14.31475795090742</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="W35" t="n">
-        <v>30.47290791452691</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>30.47290791452691</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>30.47290791452691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>30.47290791452691</v>
+        <v>2.999077511768148</v>
       </c>
       <c r="C36" t="n">
-        <v>30.47290791452691</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="E36" t="n">
-        <v>26.8405372911154</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>9.571990821914873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>2.499123417806999</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>11.77034553962528</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>30.47290791452691</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>8.485091266345535</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>8.485091266345545</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>30.47290791452693</v>
       </c>
       <c r="D38" t="n">
-        <v>30.47290791452693</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>24.05300634466592</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>30.47290791452693</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>20.73465952076845</v>
+        <v>14.31475795090742</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>12.52577934020788</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>30.47290791452693</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>30.47290791452693</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3584,73 +3584,73 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>26.84053729111533</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
         <v>30.47290791452693</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
         <v>30.47290791452693</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
       <c r="X39" t="n">
+        <v>26.8405372911153</v>
+      </c>
+      <c r="Y39" t="n">
         <v>30.47290791452693</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>8.485091266345547</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>8.485091266345533</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="E41" t="n">
-        <v>30.47290791452693</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>14.31475795090743</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>12.52577934020788</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>14.31475795090744</v>
       </c>
       <c r="T41" t="n">
-        <v>30.47290791452693</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.47290791452693</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>26.8405372911153</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>26.84053729111536</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3872,16 +3872,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>30.47290791452693</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="V42" t="n">
-        <v>30.47290791452693</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>30.47290791452693</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>8.485091266345533</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>8.485091266345545</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>26.8405372911153</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>30.47290791452692</v>
+        <v>14.31475795090743</v>
       </c>
       <c r="E44" t="n">
-        <v>30.47290791452692</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="F44" t="n">
-        <v>30.47290791452692</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>12.52577934020788</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
     </row>
     <row r="45">
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>30.47290791452692</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>30.47290791452692</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>9.571990821914873</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,19 +4109,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="U45" t="n">
-        <v>17.26854646920049</v>
+        <v>26.84053729111532</v>
       </c>
       <c r="V45" t="n">
-        <v>30.47290791452692</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8.485091266345531</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>8.485091266345545</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74.21958950419923</v>
+        <v>33.08211445057837</v>
       </c>
       <c r="C11" t="n">
-        <v>74.21958950419923</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="D11" t="n">
-        <v>74.21958950419923</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="E11" t="n">
-        <v>50.11605952751722</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="F11" t="n">
-        <v>50.11605952751722</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="G11" t="n">
-        <v>26.01252955083522</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="H11" t="n">
-        <v>1.908999574153215</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="I11" t="n">
-        <v>1.908999574153215</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="J11" t="n">
-        <v>1.908999574153215</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="K11" t="n">
-        <v>8.629045391172426</v>
+        <v>8.629045391172383</v>
       </c>
       <c r="L11" t="n">
-        <v>22.96239275619896</v>
+        <v>22.96239275619889</v>
       </c>
       <c r="M11" t="n">
-        <v>44.05728702482672</v>
+        <v>44.05728702482661</v>
       </c>
       <c r="N11" t="n">
-        <v>66.24326259831419</v>
+        <v>66.24326259831403</v>
       </c>
       <c r="O11" t="n">
-        <v>85.02587025944879</v>
+        <v>85.02587025944861</v>
       </c>
       <c r="P11" t="n">
-        <v>95.44997870766073</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.44997870766073</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="R11" t="n">
-        <v>95.44997870766073</v>
+        <v>81.28917440394225</v>
       </c>
       <c r="S11" t="n">
-        <v>74.21958950419923</v>
+        <v>57.18564442726031</v>
       </c>
       <c r="T11" t="n">
-        <v>74.21958950419923</v>
+        <v>57.18564442726031</v>
       </c>
       <c r="U11" t="n">
-        <v>74.21958950419923</v>
+        <v>57.18564442726031</v>
       </c>
       <c r="V11" t="n">
-        <v>74.21958950419923</v>
+        <v>57.18564442726031</v>
       </c>
       <c r="W11" t="n">
-        <v>74.21958950419923</v>
+        <v>57.18564442726031</v>
       </c>
       <c r="X11" t="n">
-        <v>74.21958950419923</v>
+        <v>57.18564442726031</v>
       </c>
       <c r="Y11" t="n">
-        <v>74.21958950419923</v>
+        <v>57.18564442726031</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>47.24291875429672</v>
+        <v>58.65945193647151</v>
       </c>
       <c r="C12" t="n">
-        <v>47.24291875429672</v>
+        <v>58.65945193647151</v>
       </c>
       <c r="D12" t="n">
-        <v>47.24291875429672</v>
+        <v>58.65945193647151</v>
       </c>
       <c r="E12" t="n">
-        <v>47.24291875429672</v>
+        <v>36.12359251000296</v>
       </c>
       <c r="F12" t="n">
-        <v>47.24291875429672</v>
+        <v>36.12359251000296</v>
       </c>
       <c r="G12" t="n">
-        <v>36.12359251000303</v>
+        <v>36.12359251000296</v>
       </c>
       <c r="H12" t="n">
         <v>12.02006253332103</v>
       </c>
       <c r="I12" t="n">
-        <v>1.908999574153215</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="J12" t="n">
-        <v>1.908999574153215</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="K12" t="n">
-        <v>8.346945923252331</v>
+        <v>8.34694592325231</v>
       </c>
       <c r="L12" t="n">
-        <v>24.5309722192546</v>
+        <v>24.53097221925455</v>
       </c>
       <c r="M12" t="n">
-        <v>46.56245863347766</v>
+        <v>46.56245863347759</v>
       </c>
       <c r="N12" t="n">
-        <v>70.18632836362369</v>
+        <v>70.18632836362356</v>
       </c>
       <c r="O12" t="n">
-        <v>89.40547527170473</v>
+        <v>89.40547527170457</v>
       </c>
       <c r="P12" t="n">
-        <v>95.44997870766073</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.44997870766073</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="R12" t="n">
-        <v>95.44997870766073</v>
+        <v>82.76298191315345</v>
       </c>
       <c r="S12" t="n">
-        <v>95.44997870766073</v>
+        <v>58.65945193647151</v>
       </c>
       <c r="T12" t="n">
-        <v>71.34644873097872</v>
+        <v>58.65945193647151</v>
       </c>
       <c r="U12" t="n">
-        <v>47.24291875429672</v>
+        <v>58.65945193647151</v>
       </c>
       <c r="V12" t="n">
-        <v>47.24291875429672</v>
+        <v>58.65945193647151</v>
       </c>
       <c r="W12" t="n">
-        <v>47.24291875429672</v>
+        <v>58.65945193647151</v>
       </c>
       <c r="X12" t="n">
-        <v>47.24291875429672</v>
+        <v>58.65945193647151</v>
       </c>
       <c r="Y12" t="n">
-        <v>47.24291875429672</v>
+        <v>58.65945193647151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="C13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="D13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="E13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="F13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="G13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="H13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="I13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="J13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="K13" t="n">
-        <v>1.908999574153215</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="L13" t="n">
-        <v>2.295468180757774</v>
+        <v>2.295468180757751</v>
       </c>
       <c r="M13" t="n">
-        <v>3.232416129329208</v>
+        <v>3.232416129329167</v>
       </c>
       <c r="N13" t="n">
-        <v>5.423933509581799</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="O13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="P13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="R13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="S13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="T13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="U13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="V13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="W13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="X13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581744</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.01252955083521</v>
+        <v>71.34644873097862</v>
       </c>
       <c r="C14" t="n">
-        <v>26.01252955083521</v>
+        <v>47.24291875429665</v>
       </c>
       <c r="D14" t="n">
-        <v>26.01252955083521</v>
+        <v>47.24291875429665</v>
       </c>
       <c r="E14" t="n">
-        <v>26.01252955083521</v>
+        <v>23.13938877761468</v>
       </c>
       <c r="F14" t="n">
-        <v>26.01252955083521</v>
+        <v>23.13938877761468</v>
       </c>
       <c r="G14" t="n">
-        <v>1.908999574153214</v>
+        <v>23.13938877761468</v>
       </c>
       <c r="H14" t="n">
-        <v>1.908999574153214</v>
+        <v>2.947155308689502</v>
       </c>
       <c r="I14" t="n">
-        <v>1.908999574153214</v>
+        <v>2.947155308689502</v>
       </c>
       <c r="J14" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="K14" t="n">
-        <v>8.629045391172422</v>
+        <v>8.629045391172383</v>
       </c>
       <c r="L14" t="n">
-        <v>22.96239275619896</v>
+        <v>22.96239275619888</v>
       </c>
       <c r="M14" t="n">
-        <v>44.05728702482672</v>
+        <v>44.05728702482665</v>
       </c>
       <c r="N14" t="n">
-        <v>66.2432625983142</v>
+        <v>66.2432625983141</v>
       </c>
       <c r="O14" t="n">
-        <v>85.02587025944881</v>
+        <v>85.02587025944871</v>
       </c>
       <c r="P14" t="n">
-        <v>95.44997870766072</v>
+        <v>95.44997870766061</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.44997870766072</v>
+        <v>95.44997870766059</v>
       </c>
       <c r="R14" t="n">
-        <v>95.44997870766072</v>
+        <v>95.44997870766059</v>
       </c>
       <c r="S14" t="n">
-        <v>71.34644873097872</v>
+        <v>95.44997870766059</v>
       </c>
       <c r="T14" t="n">
-        <v>71.34644873097872</v>
+        <v>71.34644873097862</v>
       </c>
       <c r="U14" t="n">
-        <v>71.34644873097872</v>
+        <v>71.34644873097862</v>
       </c>
       <c r="V14" t="n">
-        <v>47.24291875429672</v>
+        <v>71.34644873097862</v>
       </c>
       <c r="W14" t="n">
-        <v>47.24291875429672</v>
+        <v>71.34644873097862</v>
       </c>
       <c r="X14" t="n">
-        <v>26.01252955083521</v>
+        <v>71.34644873097862</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.01252955083521</v>
+        <v>71.34644873097862</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>95.44997870766072</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="C15" t="n">
-        <v>95.44997870766072</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="D15" t="n">
-        <v>95.44997870766072</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="E15" t="n">
-        <v>88.06895879629067</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="F15" t="n">
-        <v>63.96542881960868</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="G15" t="n">
-        <v>39.86189884292668</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="H15" t="n">
-        <v>15.75836886624467</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="I15" t="n">
-        <v>5.647305907076863</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="J15" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="K15" t="n">
-        <v>8.346945923252331</v>
+        <v>8.346945923252324</v>
       </c>
       <c r="L15" t="n">
-        <v>24.5309722192546</v>
+        <v>24.53097221925459</v>
       </c>
       <c r="M15" t="n">
-        <v>46.56245863347766</v>
+        <v>46.56245863347765</v>
       </c>
       <c r="N15" t="n">
-        <v>63.84811268230273</v>
+        <v>70.18632836362364</v>
       </c>
       <c r="O15" t="n">
-        <v>83.06725959038377</v>
+        <v>89.40547527170469</v>
       </c>
       <c r="P15" t="n">
-        <v>95.35069610950789</v>
+        <v>95.44997870766059</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.44997870766072</v>
+        <v>95.44997870766059</v>
       </c>
       <c r="R15" t="n">
-        <v>95.44997870766072</v>
+        <v>82.76298191315358</v>
       </c>
       <c r="S15" t="n">
-        <v>95.44997870766072</v>
+        <v>82.76298191315358</v>
       </c>
       <c r="T15" t="n">
-        <v>95.44997870766072</v>
+        <v>58.65945193647161</v>
       </c>
       <c r="U15" t="n">
-        <v>95.44997870766072</v>
+        <v>53.8543658604408</v>
       </c>
       <c r="V15" t="n">
-        <v>95.44997870766072</v>
+        <v>29.75083588375883</v>
       </c>
       <c r="W15" t="n">
-        <v>95.44997870766072</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="X15" t="n">
-        <v>95.44997870766072</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="Y15" t="n">
-        <v>95.44997870766072</v>
+        <v>5.647305907076865</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.908999574153214</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="C16" t="n">
-        <v>1.908999574153214</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="D16" t="n">
-        <v>1.908999574153214</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="E16" t="n">
-        <v>1.908999574153214</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="F16" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="G16" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="H16" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="I16" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="J16" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="K16" t="n">
-        <v>1.908999574153214</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="L16" t="n">
-        <v>2.295468180757774</v>
+        <v>2.295468180757767</v>
       </c>
       <c r="M16" t="n">
-        <v>3.232416129329207</v>
+        <v>3.232416129329197</v>
       </c>
       <c r="N16" t="n">
-        <v>5.423933509581798</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="O16" t="n">
-        <v>4.121356281663028</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="P16" t="n">
-        <v>1.908999574153214</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.908999574153214</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="R16" t="n">
-        <v>1.908999574153214</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="S16" t="n">
-        <v>1.908999574153214</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="T16" t="n">
-        <v>1.908999574153214</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="U16" t="n">
-        <v>1.908999574153214</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="V16" t="n">
-        <v>1.908999574153214</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="W16" t="n">
-        <v>1.908999574153214</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="X16" t="n">
-        <v>1.908999574153214</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.908999574153214</v>
+        <v>5.423933509581785</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.33020152775027</v>
+        <v>63.9992627635196</v>
       </c>
       <c r="C17" t="n">
-        <v>29.54948646257155</v>
+        <v>63.9992627635196</v>
       </c>
       <c r="D17" t="n">
-        <v>2.437832633162154</v>
+        <v>33.21854769834088</v>
       </c>
       <c r="E17" t="n">
-        <v>2.437832633162154</v>
+        <v>33.21854769834088</v>
       </c>
       <c r="F17" t="n">
-        <v>2.437832633162154</v>
+        <v>33.21854769834088</v>
       </c>
       <c r="G17" t="n">
-        <v>2.437832633162154</v>
+        <v>33.21854769834088</v>
       </c>
       <c r="H17" t="n">
         <v>2.437832633162154</v>
@@ -5515,19 +5515,19 @@
         <v>2.437832633162154</v>
       </c>
       <c r="J17" t="n">
-        <v>3.417978136102505</v>
+        <v>3.417978136102533</v>
       </c>
       <c r="K17" t="n">
         <v>13.13197138347073</v>
       </c>
       <c r="L17" t="n">
-        <v>31.17957527878666</v>
+        <v>31.17957527878664</v>
       </c>
       <c r="M17" t="n">
         <v>56.40729559797714</v>
       </c>
       <c r="N17" t="n">
-        <v>82.79297066826207</v>
+        <v>82.79297066826206</v>
       </c>
       <c r="O17" t="n">
         <v>105.5412354747655</v>
@@ -5548,19 +5548,19 @@
         <v>121.8916316581077</v>
       </c>
       <c r="U17" t="n">
-        <v>121.8916316581077</v>
+        <v>91.110916592929</v>
       </c>
       <c r="V17" t="n">
-        <v>121.8916316581077</v>
+        <v>91.110916592929</v>
       </c>
       <c r="W17" t="n">
-        <v>121.8916316581077</v>
+        <v>91.110916592929</v>
       </c>
       <c r="X17" t="n">
-        <v>121.8916316581077</v>
+        <v>91.110916592929</v>
       </c>
       <c r="Y17" t="n">
-        <v>91.11091659292899</v>
+        <v>63.9992627635196</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>121.8916316581077</v>
+        <v>35.74291478703481</v>
       </c>
       <c r="C18" t="n">
-        <v>121.8916316581077</v>
+        <v>35.74291478703481</v>
       </c>
       <c r="D18" t="n">
-        <v>121.8916316581077</v>
+        <v>35.74291478703481</v>
       </c>
       <c r="E18" t="n">
-        <v>106.9730225152861</v>
+        <v>35.74291478703481</v>
       </c>
       <c r="F18" t="n">
-        <v>76.19230745010734</v>
+        <v>35.74291478703481</v>
       </c>
       <c r="G18" t="n">
-        <v>45.41159238492862</v>
+        <v>35.74291478703481</v>
       </c>
       <c r="H18" t="n">
-        <v>14.6308773197499</v>
+        <v>4.962199721856093</v>
       </c>
       <c r="I18" t="n">
         <v>4.962199721856093</v>
@@ -5606,40 +5606,40 @@
         <v>55.04997730602889</v>
       </c>
       <c r="N18" t="n">
-        <v>83.2812595476321</v>
+        <v>83.28125954763217</v>
       </c>
       <c r="O18" t="n">
         <v>105.4966506502405</v>
       </c>
       <c r="P18" t="n">
-        <v>120.184837289027</v>
+        <v>120.1848372890271</v>
       </c>
       <c r="Q18" t="n">
         <v>121.8916316581077</v>
       </c>
       <c r="R18" t="n">
-        <v>121.8916316581077</v>
+        <v>110.0023937392943</v>
       </c>
       <c r="S18" t="n">
-        <v>121.8916316581077</v>
+        <v>110.0023937392943</v>
       </c>
       <c r="T18" t="n">
-        <v>121.8916316581077</v>
+        <v>110.0023937392943</v>
       </c>
       <c r="U18" t="n">
-        <v>121.8916316581077</v>
+        <v>97.30434491739226</v>
       </c>
       <c r="V18" t="n">
-        <v>121.8916316581077</v>
+        <v>66.52362985221353</v>
       </c>
       <c r="W18" t="n">
-        <v>121.8916316581077</v>
+        <v>35.74291478703481</v>
       </c>
       <c r="X18" t="n">
-        <v>121.8916316581077</v>
+        <v>35.74291478703481</v>
       </c>
       <c r="Y18" t="n">
-        <v>121.8916316581077</v>
+        <v>35.74291478703481</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.437832633162154</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="C19" t="n">
-        <v>2.437832633162154</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="D19" t="n">
-        <v>2.437832633162154</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="E19" t="n">
         <v>2.437832633162154</v>
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>78.45861422908266</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="C20" t="n">
-        <v>78.45861422908266</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="D20" t="n">
-        <v>78.45861422908266</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="E20" t="n">
-        <v>54.1626482243696</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="F20" t="n">
-        <v>54.1626482243696</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="G20" t="n">
-        <v>54.1626482243696</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="H20" t="n">
-        <v>23.38193315919089</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="I20" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="J20" t="n">
-        <v>3.417978136102526</v>
+        <v>3.417978136102533</v>
       </c>
       <c r="K20" t="n">
-        <v>13.13197138347072</v>
+        <v>13.13197138347073</v>
       </c>
       <c r="L20" t="n">
-        <v>31.17957527878663</v>
+        <v>31.17957527878666</v>
       </c>
       <c r="M20" t="n">
-        <v>56.40729559797711</v>
+        <v>56.40729559797716</v>
       </c>
       <c r="N20" t="n">
-        <v>82.79297066826206</v>
+        <v>82.79297066826209</v>
       </c>
       <c r="O20" t="n">
-        <v>105.5412354747655</v>
+        <v>105.5412354747656</v>
       </c>
       <c r="P20" t="n">
         <v>119.3499405478291</v>
@@ -5779,25 +5779,25 @@
         <v>109.2393292942614</v>
       </c>
       <c r="S20" t="n">
-        <v>78.45861422908266</v>
+        <v>109.2393292942614</v>
       </c>
       <c r="T20" t="n">
-        <v>78.45861422908266</v>
+        <v>78.45861422908267</v>
       </c>
       <c r="U20" t="n">
-        <v>78.45861422908266</v>
+        <v>47.67789916390394</v>
       </c>
       <c r="V20" t="n">
-        <v>78.45861422908266</v>
+        <v>16.89718409872522</v>
       </c>
       <c r="W20" t="n">
-        <v>78.45861422908266</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="X20" t="n">
-        <v>78.45861422908266</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="Y20" t="n">
-        <v>78.45861422908266</v>
+        <v>2.437832633162155</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>60.33020152775027</v>
+        <v>4.962199721856093</v>
       </c>
       <c r="C21" t="n">
-        <v>60.33020152775027</v>
+        <v>4.962199721856093</v>
       </c>
       <c r="D21" t="n">
-        <v>60.33020152775027</v>
+        <v>4.962199721856093</v>
       </c>
       <c r="E21" t="n">
-        <v>29.54948646257155</v>
+        <v>4.962199721856093</v>
       </c>
       <c r="F21" t="n">
-        <v>29.54948646257155</v>
+        <v>4.962199721856093</v>
       </c>
       <c r="G21" t="n">
-        <v>2.437832633162154</v>
+        <v>4.962199721856093</v>
       </c>
       <c r="H21" t="n">
-        <v>2.437832633162154</v>
+        <v>4.962199721856093</v>
       </c>
       <c r="I21" t="n">
-        <v>2.437832633162154</v>
+        <v>4.962199721856093</v>
       </c>
       <c r="J21" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="K21" t="n">
-        <v>10.90930567516429</v>
+        <v>10.90930567516433</v>
       </c>
       <c r="L21" t="n">
-        <v>29.82765956255546</v>
+        <v>29.8276595625555</v>
       </c>
       <c r="M21" t="n">
-        <v>55.04997730602885</v>
+        <v>55.04997730602889</v>
       </c>
       <c r="N21" t="n">
-        <v>83.28125954763213</v>
+        <v>83.28125954763217</v>
       </c>
       <c r="O21" t="n">
         <v>105.4966506502405</v>
@@ -5855,28 +5855,28 @@
         <v>121.8916316581077</v>
       </c>
       <c r="R21" t="n">
-        <v>121.8916316581077</v>
+        <v>110.0023937392943</v>
       </c>
       <c r="S21" t="n">
-        <v>121.8916316581077</v>
+        <v>110.0023937392943</v>
       </c>
       <c r="T21" t="n">
-        <v>91.11091659292899</v>
+        <v>110.0023937392943</v>
       </c>
       <c r="U21" t="n">
-        <v>91.11091659292899</v>
+        <v>79.22167867411559</v>
       </c>
       <c r="V21" t="n">
-        <v>91.11091659292899</v>
+        <v>48.44096360893687</v>
       </c>
       <c r="W21" t="n">
-        <v>91.11091659292899</v>
+        <v>48.44096360893687</v>
       </c>
       <c r="X21" t="n">
-        <v>91.11091659292899</v>
+        <v>48.44096360893687</v>
       </c>
       <c r="Y21" t="n">
-        <v>60.33020152775027</v>
+        <v>17.66024854375814</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.00863189209704</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="C22" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="D22" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="E22" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="F22" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="G22" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="H22" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="I22" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="J22" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="K22" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="L22" t="n">
-        <v>4.393946466374013</v>
+        <v>4.393946466374016</v>
       </c>
       <c r="M22" t="n">
-        <v>6.985865225902378</v>
+        <v>6.985865225902385</v>
       </c>
       <c r="N22" t="n">
-        <v>10.79300191026899</v>
+        <v>10.793001910269</v>
       </c>
       <c r="O22" t="n">
-        <v>11.00863189209704</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="P22" t="n">
-        <v>11.00863189209704</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.00863189209704</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="R22" t="n">
-        <v>11.00863189209704</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="S22" t="n">
-        <v>11.00863189209704</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="T22" t="n">
-        <v>11.00863189209704</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="U22" t="n">
-        <v>11.00863189209704</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="V22" t="n">
-        <v>11.00863189209704</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="W22" t="n">
-        <v>11.00863189209704</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="X22" t="n">
-        <v>11.00863189209704</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.00863189209704</v>
+        <v>2.437832633162155</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>121.8916316581077</v>
+        <v>47.67789916390396</v>
       </c>
       <c r="C23" t="n">
-        <v>91.11091659292896</v>
+        <v>47.67789916390396</v>
       </c>
       <c r="D23" t="n">
-        <v>91.11091659292896</v>
+        <v>47.67789916390396</v>
       </c>
       <c r="E23" t="n">
-        <v>60.33020152775025</v>
+        <v>47.67789916390396</v>
       </c>
       <c r="F23" t="n">
-        <v>60.33020152775025</v>
+        <v>47.67789916390396</v>
       </c>
       <c r="G23" t="n">
-        <v>29.54948646257155</v>
+        <v>33.21854769834089</v>
       </c>
       <c r="H23" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162156</v>
       </c>
       <c r="I23" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162156</v>
       </c>
       <c r="J23" t="n">
-        <v>3.417978136102526</v>
+        <v>3.417978136102519</v>
       </c>
       <c r="K23" t="n">
-        <v>13.13197138347072</v>
+        <v>13.13197138347074</v>
       </c>
       <c r="L23" t="n">
-        <v>31.17957527878664</v>
+        <v>31.17957527878667</v>
       </c>
       <c r="M23" t="n">
-        <v>56.40729559797714</v>
+        <v>56.40729559797715</v>
       </c>
       <c r="N23" t="n">
-        <v>82.79297066826206</v>
+        <v>82.79297066826207</v>
       </c>
       <c r="O23" t="n">
         <v>105.5412354747655</v>
       </c>
       <c r="P23" t="n">
-        <v>119.349940547829</v>
+        <v>119.3499405478292</v>
       </c>
       <c r="Q23" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="R23" t="n">
-        <v>121.8916316581077</v>
+        <v>109.2393292942614</v>
       </c>
       <c r="S23" t="n">
-        <v>121.8916316581077</v>
+        <v>78.4586142290827</v>
       </c>
       <c r="T23" t="n">
-        <v>121.8916316581077</v>
+        <v>47.67789916390396</v>
       </c>
       <c r="U23" t="n">
-        <v>121.8916316581077</v>
+        <v>47.67789916390396</v>
       </c>
       <c r="V23" t="n">
-        <v>121.8916316581077</v>
+        <v>47.67789916390396</v>
       </c>
       <c r="W23" t="n">
-        <v>121.8916316581077</v>
+        <v>47.67789916390396</v>
       </c>
       <c r="X23" t="n">
-        <v>121.8916316581077</v>
+        <v>47.67789916390396</v>
       </c>
       <c r="Y23" t="n">
-        <v>121.8916316581077</v>
+        <v>47.67789916390396</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>29.54948646257155</v>
+        <v>4.962199721856094</v>
       </c>
       <c r="C24" t="n">
-        <v>2.437832633162153</v>
+        <v>4.962199721856094</v>
       </c>
       <c r="D24" t="n">
-        <v>2.437832633162153</v>
+        <v>4.962199721856094</v>
       </c>
       <c r="E24" t="n">
-        <v>2.437832633162153</v>
+        <v>4.962199721856094</v>
       </c>
       <c r="F24" t="n">
-        <v>2.437832633162153</v>
+        <v>4.962199721856094</v>
       </c>
       <c r="G24" t="n">
-        <v>2.437832633162153</v>
+        <v>4.962199721856094</v>
       </c>
       <c r="H24" t="n">
-        <v>2.437832633162153</v>
+        <v>4.962199721856094</v>
       </c>
       <c r="I24" t="n">
-        <v>2.437832633162153</v>
+        <v>4.962199721856094</v>
       </c>
       <c r="J24" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162156</v>
       </c>
       <c r="K24" t="n">
         <v>10.90930567516432</v>
       </c>
       <c r="L24" t="n">
-        <v>29.82765956255549</v>
+        <v>29.8276595625555</v>
       </c>
       <c r="M24" t="n">
-        <v>55.04997730602887</v>
+        <v>55.04997730602891</v>
       </c>
       <c r="N24" t="n">
-        <v>83.28125954763215</v>
+        <v>83.28125954763219</v>
       </c>
       <c r="O24" t="n">
         <v>105.4966506502405</v>
@@ -6089,31 +6089,31 @@
         <v>120.1848372890271</v>
       </c>
       <c r="Q24" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="R24" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="S24" t="n">
-        <v>121.8916316581077</v>
+        <v>97.3043449173923</v>
       </c>
       <c r="T24" t="n">
-        <v>121.8916316581077</v>
+        <v>66.52362985221356</v>
       </c>
       <c r="U24" t="n">
-        <v>121.8916316581077</v>
+        <v>35.74291478703483</v>
       </c>
       <c r="V24" t="n">
-        <v>121.8916316581077</v>
+        <v>4.962199721856094</v>
       </c>
       <c r="W24" t="n">
-        <v>121.8916316581077</v>
+        <v>4.962199721856094</v>
       </c>
       <c r="X24" t="n">
-        <v>91.11091659292896</v>
+        <v>4.962199721856094</v>
       </c>
       <c r="Y24" t="n">
-        <v>60.33020152775025</v>
+        <v>4.962199721856094</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="C25" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="D25" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="E25" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="F25" t="n">
-        <v>121.8916316581077</v>
+        <v>2.437832633162156</v>
       </c>
       <c r="G25" t="n">
-        <v>113.3208323991728</v>
+        <v>2.437832633162156</v>
       </c>
       <c r="H25" t="n">
-        <v>113.3208323991728</v>
+        <v>2.437832633162156</v>
       </c>
       <c r="I25" t="n">
-        <v>113.3208323991728</v>
+        <v>2.437832633162156</v>
       </c>
       <c r="J25" t="n">
-        <v>113.3208323991728</v>
+        <v>2.437832633162156</v>
       </c>
       <c r="K25" t="n">
-        <v>113.3208323991728</v>
+        <v>2.437832633162156</v>
       </c>
       <c r="L25" t="n">
-        <v>115.2769462323846</v>
+        <v>4.393946466374018</v>
       </c>
       <c r="M25" t="n">
-        <v>117.868864991913</v>
+        <v>6.985865225902387</v>
       </c>
       <c r="N25" t="n">
-        <v>121.6760016762796</v>
+        <v>10.793001910269</v>
       </c>
       <c r="O25" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="P25" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="Q25" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="R25" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="S25" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="T25" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="U25" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="V25" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="W25" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="X25" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="Y25" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>16.89718409872521</v>
+        <v>115.7240783547271</v>
       </c>
       <c r="C26" t="n">
-        <v>2.437832633162154</v>
+        <v>84.94336328954833</v>
       </c>
       <c r="D26" t="n">
-        <v>2.437832633162154</v>
+        <v>84.94336328954833</v>
       </c>
       <c r="E26" t="n">
-        <v>2.437832633162154</v>
+        <v>54.1626482243696</v>
       </c>
       <c r="F26" t="n">
-        <v>2.437832633162154</v>
+        <v>23.38193315919088</v>
       </c>
       <c r="G26" t="n">
-        <v>2.437832633162154</v>
+        <v>23.38193315919088</v>
       </c>
       <c r="H26" t="n">
-        <v>2.437832633162154</v>
+        <v>23.38193315919088</v>
       </c>
       <c r="I26" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="J26" t="n">
-        <v>3.417978136102535</v>
+        <v>3.417978136102533</v>
       </c>
       <c r="K26" t="n">
         <v>13.13197138347073</v>
@@ -6238,7 +6238,7 @@
         <v>56.40729559797715</v>
       </c>
       <c r="N26" t="n">
-        <v>82.79297066826206</v>
+        <v>82.79297066826207</v>
       </c>
       <c r="O26" t="n">
         <v>105.5412354747655</v>
@@ -6250,28 +6250,28 @@
         <v>121.8916316581077</v>
       </c>
       <c r="R26" t="n">
-        <v>109.2393292942613</v>
+        <v>115.7240783547271</v>
       </c>
       <c r="S26" t="n">
-        <v>109.2393292942613</v>
+        <v>115.7240783547271</v>
       </c>
       <c r="T26" t="n">
-        <v>109.2393292942613</v>
+        <v>115.7240783547271</v>
       </c>
       <c r="U26" t="n">
-        <v>78.45861422908263</v>
+        <v>115.7240783547271</v>
       </c>
       <c r="V26" t="n">
-        <v>78.45861422908263</v>
+        <v>115.7240783547271</v>
       </c>
       <c r="W26" t="n">
-        <v>78.45861422908263</v>
+        <v>115.7240783547271</v>
       </c>
       <c r="X26" t="n">
-        <v>47.67789916390392</v>
+        <v>115.7240783547271</v>
       </c>
       <c r="Y26" t="n">
-        <v>16.89718409872521</v>
+        <v>115.7240783547271</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>91.11091659292897</v>
+        <v>91.11091659292906</v>
       </c>
       <c r="C27" t="n">
-        <v>60.33020152775026</v>
+        <v>91.11091659292906</v>
       </c>
       <c r="D27" t="n">
-        <v>60.33020152775026</v>
+        <v>91.11091659292906</v>
       </c>
       <c r="E27" t="n">
-        <v>60.33020152775026</v>
+        <v>60.33020152775033</v>
       </c>
       <c r="F27" t="n">
-        <v>60.33020152775026</v>
+        <v>60.33020152775033</v>
       </c>
       <c r="G27" t="n">
-        <v>29.54948646257155</v>
+        <v>33.21854769834088</v>
       </c>
       <c r="H27" t="n">
-        <v>14.6308773197499</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="I27" t="n">
-        <v>4.962199721856091</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="J27" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="K27" t="n">
-        <v>10.90930567516432</v>
+        <v>10.90930567516433</v>
       </c>
       <c r="L27" t="n">
-        <v>29.82765956255549</v>
+        <v>29.8276595625555</v>
       </c>
       <c r="M27" t="n">
-        <v>55.04997730602887</v>
+        <v>55.04997730602889</v>
       </c>
       <c r="N27" t="n">
-        <v>83.28125954763215</v>
+        <v>83.28125954763217</v>
       </c>
       <c r="O27" t="n">
-        <v>105.4966506502404</v>
+        <v>105.4966506502405</v>
       </c>
       <c r="P27" t="n">
-        <v>120.184837289027</v>
+        <v>120.1848372890271</v>
       </c>
       <c r="Q27" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="R27" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="S27" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="T27" t="n">
-        <v>91.11091659292897</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="U27" t="n">
-        <v>91.11091659292897</v>
+        <v>91.11091659292906</v>
       </c>
       <c r="V27" t="n">
-        <v>91.11091659292897</v>
+        <v>91.11091659292906</v>
       </c>
       <c r="W27" t="n">
-        <v>91.11091659292897</v>
+        <v>91.11091659292906</v>
       </c>
       <c r="X27" t="n">
-        <v>91.11091659292897</v>
+        <v>91.11091659292906</v>
       </c>
       <c r="Y27" t="n">
-        <v>91.11091659292897</v>
+        <v>91.11091659292906</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.00863189209703</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="C28" t="n">
-        <v>11.00863189209703</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="D28" t="n">
-        <v>11.00863189209703</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="E28" t="n">
-        <v>11.00863189209703</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="F28" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="G28" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="H28" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="I28" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="J28" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="K28" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="L28" t="n">
-        <v>4.393946466374012</v>
+        <v>4.393946466374016</v>
       </c>
       <c r="M28" t="n">
-        <v>6.985865225902376</v>
+        <v>6.985865225902385</v>
       </c>
       <c r="N28" t="n">
-        <v>10.79300191026899</v>
+        <v>10.793001910269</v>
       </c>
       <c r="O28" t="n">
-        <v>11.00863189209703</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="P28" t="n">
-        <v>11.00863189209703</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.00863189209703</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="R28" t="n">
-        <v>11.00863189209703</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="S28" t="n">
-        <v>11.00863189209703</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="T28" t="n">
-        <v>11.00863189209703</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="U28" t="n">
-        <v>11.00863189209703</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="V28" t="n">
-        <v>11.00863189209703</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="W28" t="n">
-        <v>11.00863189209703</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="X28" t="n">
-        <v>11.00863189209703</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.00863189209703</v>
+        <v>11.00863189209705</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.54948646257154</v>
+        <v>63.9992627635196</v>
       </c>
       <c r="C29" t="n">
-        <v>29.54948646257154</v>
+        <v>33.21854769834088</v>
       </c>
       <c r="D29" t="n">
-        <v>29.54948646257154</v>
+        <v>33.21854769834088</v>
       </c>
       <c r="E29" t="n">
-        <v>29.54948646257154</v>
+        <v>33.21854769834088</v>
       </c>
       <c r="F29" t="n">
-        <v>29.54948646257154</v>
+        <v>33.21854769834088</v>
       </c>
       <c r="G29" t="n">
-        <v>29.54948646257154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="H29" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="I29" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="J29" t="n">
-        <v>3.417978136102512</v>
+        <v>3.417978136102533</v>
       </c>
       <c r="K29" t="n">
         <v>13.13197138347071</v>
@@ -6472,43 +6472,43 @@
         <v>31.17957527878664</v>
       </c>
       <c r="M29" t="n">
-        <v>56.40729559797712</v>
+        <v>56.40729559797713</v>
       </c>
       <c r="N29" t="n">
-        <v>82.79297066826199</v>
+        <v>82.79297066826203</v>
       </c>
       <c r="O29" t="n">
-        <v>105.5412354747654</v>
+        <v>105.5412354747655</v>
       </c>
       <c r="P29" t="n">
-        <v>119.349940547829</v>
+        <v>119.3499405478291</v>
       </c>
       <c r="Q29" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="R29" t="n">
-        <v>121.8916316581076</v>
+        <v>109.2393292942614</v>
       </c>
       <c r="S29" t="n">
-        <v>121.8916316581076</v>
+        <v>109.2393292942614</v>
       </c>
       <c r="T29" t="n">
-        <v>91.11091659292893</v>
+        <v>94.77997782869832</v>
       </c>
       <c r="U29" t="n">
-        <v>60.33020152775023</v>
+        <v>94.77997782869832</v>
       </c>
       <c r="V29" t="n">
-        <v>29.54948646257154</v>
+        <v>94.77997782869832</v>
       </c>
       <c r="W29" t="n">
-        <v>29.54948646257154</v>
+        <v>94.77997782869832</v>
       </c>
       <c r="X29" t="n">
-        <v>29.54948646257154</v>
+        <v>94.77997782869832</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.54948646257154</v>
+        <v>94.77997782869832</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="C30" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="D30" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="E30" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="F30" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="G30" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="H30" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="I30" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="J30" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="K30" t="n">
         <v>10.90930567516432</v>
       </c>
       <c r="L30" t="n">
-        <v>29.82765956255538</v>
+        <v>29.82765956255549</v>
       </c>
       <c r="M30" t="n">
-        <v>55.04997730602876</v>
+        <v>55.04997730602887</v>
       </c>
       <c r="N30" t="n">
-        <v>83.28125954763203</v>
+        <v>83.28125954763215</v>
       </c>
       <c r="O30" t="n">
-        <v>105.4966506502404</v>
+        <v>105.4966506502405</v>
       </c>
       <c r="P30" t="n">
-        <v>120.184837289027</v>
+        <v>120.1848372890271</v>
       </c>
       <c r="Q30" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="R30" t="n">
-        <v>110.0023937392942</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="S30" t="n">
-        <v>79.22167867411551</v>
+        <v>91.11091659292902</v>
       </c>
       <c r="T30" t="n">
-        <v>63.99926276351955</v>
+        <v>91.11091659292902</v>
       </c>
       <c r="U30" t="n">
-        <v>33.21854769834085</v>
+        <v>60.33020152775029</v>
       </c>
       <c r="V30" t="n">
-        <v>2.437832633162153</v>
+        <v>29.54948646257156</v>
       </c>
       <c r="W30" t="n">
-        <v>2.437832633162153</v>
+        <v>29.54948646257156</v>
       </c>
       <c r="X30" t="n">
-        <v>2.437832633162153</v>
+        <v>29.54948646257156</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162155</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>121.8916316581076</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="C31" t="n">
-        <v>121.8916316581076</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="D31" t="n">
-        <v>121.8916316581076</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="E31" t="n">
-        <v>113.3208323991727</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="F31" t="n">
-        <v>113.3208323991727</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="G31" t="n">
-        <v>113.3208323991727</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="H31" t="n">
-        <v>113.3208323991727</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="I31" t="n">
-        <v>113.3208323991727</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="J31" t="n">
-        <v>113.3208323991727</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="K31" t="n">
-        <v>113.3208323991727</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="L31" t="n">
-        <v>115.2769462323846</v>
+        <v>4.393946466374013</v>
       </c>
       <c r="M31" t="n">
-        <v>117.868864991913</v>
+        <v>6.985865225902378</v>
       </c>
       <c r="N31" t="n">
-        <v>121.6760016762796</v>
+        <v>10.79300191026899</v>
       </c>
       <c r="O31" t="n">
-        <v>121.8916316581076</v>
+        <v>11.00863189209704</v>
       </c>
       <c r="P31" t="n">
-        <v>121.8916316581076</v>
+        <v>11.00863189209704</v>
       </c>
       <c r="Q31" t="n">
-        <v>121.8916316581076</v>
+        <v>11.00863189209704</v>
       </c>
       <c r="R31" t="n">
-        <v>121.8916316581076</v>
+        <v>11.00863189209704</v>
       </c>
       <c r="S31" t="n">
-        <v>121.8916316581076</v>
+        <v>11.00863189209704</v>
       </c>
       <c r="T31" t="n">
-        <v>121.8916316581076</v>
+        <v>11.00863189209704</v>
       </c>
       <c r="U31" t="n">
-        <v>121.8916316581076</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="V31" t="n">
-        <v>121.8916316581076</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="W31" t="n">
-        <v>121.8916316581076</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="X31" t="n">
-        <v>121.8916316581076</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="Y31" t="n">
-        <v>121.8916316581076</v>
+        <v>2.437832633162155</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.2393292942613</v>
+        <v>91.11091659292902</v>
       </c>
       <c r="C32" t="n">
-        <v>78.4586142290826</v>
+        <v>60.33020152775029</v>
       </c>
       <c r="D32" t="n">
-        <v>78.4586142290826</v>
+        <v>60.33020152775029</v>
       </c>
       <c r="E32" t="n">
-        <v>63.99926276351956</v>
+        <v>60.33020152775029</v>
       </c>
       <c r="F32" t="n">
-        <v>33.21854769834086</v>
+        <v>33.21854769834088</v>
       </c>
       <c r="G32" t="n">
-        <v>33.21854769834086</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="H32" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="I32" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="J32" t="n">
         <v>3.417978136102533</v>
@@ -6706,46 +6706,46 @@
         <v>13.13197138347073</v>
       </c>
       <c r="L32" t="n">
-        <v>31.17957527878665</v>
+        <v>31.17957527878667</v>
       </c>
       <c r="M32" t="n">
-        <v>56.40729559797713</v>
+        <v>56.40729559797714</v>
       </c>
       <c r="N32" t="n">
-        <v>82.79297066826203</v>
+        <v>82.79297066826206</v>
       </c>
       <c r="O32" t="n">
         <v>105.5412354747655</v>
       </c>
       <c r="P32" t="n">
-        <v>119.349940547829</v>
+        <v>119.3499405478291</v>
       </c>
       <c r="Q32" t="n">
         <v>121.8916316581077</v>
       </c>
       <c r="R32" t="n">
-        <v>109.2393292942613</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="S32" t="n">
-        <v>109.2393292942613</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="T32" t="n">
-        <v>109.2393292942613</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="U32" t="n">
-        <v>109.2393292942613</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="V32" t="n">
-        <v>109.2393292942613</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="W32" t="n">
-        <v>109.2393292942613</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="X32" t="n">
-        <v>109.2393292942613</v>
+        <v>91.11091659292902</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.2393292942613</v>
+        <v>91.11091659292902</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.437832633162153</v>
+        <v>17.66024854375814</v>
       </c>
       <c r="C33" t="n">
-        <v>2.437832633162153</v>
+        <v>17.66024854375814</v>
       </c>
       <c r="D33" t="n">
-        <v>2.437832633162153</v>
+        <v>17.66024854375814</v>
       </c>
       <c r="E33" t="n">
-        <v>2.437832633162153</v>
+        <v>17.66024854375814</v>
       </c>
       <c r="F33" t="n">
-        <v>2.437832633162153</v>
+        <v>17.66024854375814</v>
       </c>
       <c r="G33" t="n">
-        <v>2.437832633162153</v>
+        <v>12.10651023105597</v>
       </c>
       <c r="H33" t="n">
-        <v>2.437832633162153</v>
+        <v>12.10651023105597</v>
       </c>
       <c r="I33" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="J33" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="K33" t="n">
-        <v>10.90930567516432</v>
+        <v>10.90930567516433</v>
       </c>
       <c r="L33" t="n">
-        <v>29.82765956255549</v>
+        <v>29.8276595625555</v>
       </c>
       <c r="M33" t="n">
-        <v>55.04997730602887</v>
+        <v>55.04997730602889</v>
       </c>
       <c r="N33" t="n">
-        <v>83.28125954763215</v>
+        <v>83.28125954763217</v>
       </c>
       <c r="O33" t="n">
         <v>105.4966506502405</v>
@@ -6803,28 +6803,28 @@
         <v>121.8916316581077</v>
       </c>
       <c r="R33" t="n">
-        <v>121.8916316581077</v>
+        <v>110.0023937392943</v>
       </c>
       <c r="S33" t="n">
-        <v>121.8916316581077</v>
+        <v>110.0023937392943</v>
       </c>
       <c r="T33" t="n">
-        <v>91.11091659292904</v>
+        <v>79.22167867411559</v>
       </c>
       <c r="U33" t="n">
-        <v>63.99926276351956</v>
+        <v>48.44096360893687</v>
       </c>
       <c r="V33" t="n">
-        <v>33.21854769834086</v>
+        <v>17.66024854375814</v>
       </c>
       <c r="W33" t="n">
-        <v>2.437832633162153</v>
+        <v>17.66024854375814</v>
       </c>
       <c r="X33" t="n">
-        <v>2.437832633162153</v>
+        <v>17.66024854375814</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.437832633162153</v>
+        <v>17.66024854375814</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="C34" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="D34" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="E34" t="n">
-        <v>113.3208323991728</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="F34" t="n">
-        <v>113.3208323991728</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="G34" t="n">
-        <v>113.3208323991728</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="H34" t="n">
-        <v>113.3208323991728</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="I34" t="n">
-        <v>113.3208323991728</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="J34" t="n">
-        <v>113.3208323991728</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="K34" t="n">
-        <v>113.3208323991728</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="L34" t="n">
-        <v>115.2769462323846</v>
+        <v>4.393946466374016</v>
       </c>
       <c r="M34" t="n">
-        <v>117.868864991913</v>
+        <v>6.985865225902385</v>
       </c>
       <c r="N34" t="n">
-        <v>121.6760016762796</v>
+        <v>10.793001910269</v>
       </c>
       <c r="O34" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="P34" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="Q34" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="R34" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="S34" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="T34" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="U34" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="V34" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="W34" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="X34" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.8916316581077</v>
+        <v>11.00863189209705</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.437832633162153</v>
+        <v>84.94336328954833</v>
       </c>
       <c r="C35" t="n">
-        <v>2.437832633162153</v>
+        <v>54.1626482243696</v>
       </c>
       <c r="D35" t="n">
-        <v>2.437832633162153</v>
+        <v>54.1626482243696</v>
       </c>
       <c r="E35" t="n">
-        <v>2.437832633162153</v>
+        <v>54.1626482243696</v>
       </c>
       <c r="F35" t="n">
-        <v>2.437832633162153</v>
+        <v>54.1626482243696</v>
       </c>
       <c r="G35" t="n">
-        <v>2.437832633162153</v>
+        <v>23.38193315919088</v>
       </c>
       <c r="H35" t="n">
-        <v>2.437832633162153</v>
+        <v>23.38193315919088</v>
       </c>
       <c r="I35" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="J35" t="n">
-        <v>3.417978136102512</v>
+        <v>3.41797813610254</v>
       </c>
       <c r="K35" t="n">
-        <v>13.13197138347071</v>
+        <v>13.13197138347074</v>
       </c>
       <c r="L35" t="n">
-        <v>31.17957527878664</v>
+        <v>31.17957527878669</v>
       </c>
       <c r="M35" t="n">
-        <v>56.40729559797712</v>
+        <v>56.40729559797718</v>
       </c>
       <c r="N35" t="n">
-        <v>82.79297066826199</v>
+        <v>82.7929706682621</v>
       </c>
       <c r="O35" t="n">
-        <v>105.5412354747654</v>
+        <v>105.5412354747656</v>
       </c>
       <c r="P35" t="n">
-        <v>119.349940547829</v>
+        <v>119.3499405478291</v>
       </c>
       <c r="Q35" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="R35" t="n">
-        <v>109.2393292942613</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="S35" t="n">
-        <v>109.2393292942613</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="T35" t="n">
-        <v>109.2393292942613</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="U35" t="n">
-        <v>109.2393292942613</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="V35" t="n">
-        <v>94.77997782869824</v>
+        <v>91.11091659292902</v>
       </c>
       <c r="W35" t="n">
-        <v>63.99926276351955</v>
+        <v>91.11091659292902</v>
       </c>
       <c r="X35" t="n">
-        <v>33.21854769834085</v>
+        <v>91.11091659292902</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.437832633162153</v>
+        <v>91.11091659292902</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>60.33020152775035</v>
+        <v>106.9730225152861</v>
       </c>
       <c r="C36" t="n">
-        <v>29.54948646257165</v>
+        <v>106.9730225152861</v>
       </c>
       <c r="D36" t="n">
-        <v>29.54948646257165</v>
+        <v>76.19230745010736</v>
       </c>
       <c r="E36" t="n">
-        <v>2.437832633162153</v>
+        <v>76.19230745010736</v>
       </c>
       <c r="F36" t="n">
-        <v>2.437832633162153</v>
+        <v>45.41159238492863</v>
       </c>
       <c r="G36" t="n">
-        <v>2.437832633162153</v>
+        <v>14.6308773197499</v>
       </c>
       <c r="H36" t="n">
-        <v>2.437832633162153</v>
+        <v>14.6308773197499</v>
       </c>
       <c r="I36" t="n">
-        <v>2.437832633162153</v>
+        <v>4.962199721856093</v>
       </c>
       <c r="J36" t="n">
-        <v>2.437832633162153</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="K36" t="n">
-        <v>10.90930567516432</v>
+        <v>10.90930567516433</v>
       </c>
       <c r="L36" t="n">
-        <v>29.82765956255549</v>
+        <v>29.8276595625555</v>
       </c>
       <c r="M36" t="n">
-        <v>55.04997730602887</v>
+        <v>55.04997730602889</v>
       </c>
       <c r="N36" t="n">
-        <v>83.28125954763215</v>
+        <v>83.28125954763217</v>
       </c>
       <c r="O36" t="n">
         <v>105.4966506502405</v>
@@ -7040,28 +7040,28 @@
         <v>121.8916316581077</v>
       </c>
       <c r="R36" t="n">
-        <v>121.8916316581077</v>
+        <v>110.0023937392943</v>
       </c>
       <c r="S36" t="n">
-        <v>121.8916316581077</v>
+        <v>110.0023937392943</v>
       </c>
       <c r="T36" t="n">
-        <v>121.8916316581077</v>
+        <v>110.0023937392943</v>
       </c>
       <c r="U36" t="n">
-        <v>121.8916316581077</v>
+        <v>110.0023937392943</v>
       </c>
       <c r="V36" t="n">
-        <v>91.11091659292904</v>
+        <v>110.0023937392943</v>
       </c>
       <c r="W36" t="n">
-        <v>91.11091659292904</v>
+        <v>110.0023937392943</v>
       </c>
       <c r="X36" t="n">
-        <v>91.11091659292904</v>
+        <v>110.0023937392943</v>
       </c>
       <c r="Y36" t="n">
-        <v>91.11091659292904</v>
+        <v>110.0023937392943</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>121.8916316581076</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="C37" t="n">
-        <v>121.8916316581076</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="D37" t="n">
-        <v>121.8916316581076</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="E37" t="n">
-        <v>113.3208323991727</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="F37" t="n">
-        <v>113.3208323991727</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="G37" t="n">
-        <v>113.3208323991727</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="H37" t="n">
-        <v>113.3208323991727</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="I37" t="n">
-        <v>113.3208323991727</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="J37" t="n">
-        <v>113.3208323991727</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="K37" t="n">
-        <v>113.3208323991727</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="L37" t="n">
-        <v>115.2769462323846</v>
+        <v>4.393946466374016</v>
       </c>
       <c r="M37" t="n">
-        <v>117.868864991913</v>
+        <v>6.985865225902385</v>
       </c>
       <c r="N37" t="n">
-        <v>121.6760016762796</v>
+        <v>10.793001910269</v>
       </c>
       <c r="O37" t="n">
-        <v>121.8916316581076</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="P37" t="n">
-        <v>121.8916316581076</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="Q37" t="n">
-        <v>121.8916316581076</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="R37" t="n">
-        <v>121.8916316581076</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="S37" t="n">
-        <v>121.8916316581076</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8916316581076</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="U37" t="n">
-        <v>121.8916316581076</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="V37" t="n">
-        <v>121.8916316581076</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="W37" t="n">
-        <v>121.8916316581076</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="X37" t="n">
-        <v>121.8916316581076</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="Y37" t="n">
-        <v>121.8916316581076</v>
+        <v>2.437832633162155</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>109.2393292942614</v>
+        <v>47.67789916390393</v>
       </c>
       <c r="C38" t="n">
-        <v>109.2393292942614</v>
+        <v>16.89718409872521</v>
       </c>
       <c r="D38" t="n">
-        <v>78.45861422908266</v>
+        <v>16.89718409872521</v>
       </c>
       <c r="E38" t="n">
-        <v>54.1626482243696</v>
+        <v>16.89718409872521</v>
       </c>
       <c r="F38" t="n">
-        <v>23.38193315919089</v>
+        <v>16.89718409872521</v>
       </c>
       <c r="G38" t="n">
-        <v>23.38193315919089</v>
+        <v>16.89718409872521</v>
       </c>
       <c r="H38" t="n">
-        <v>23.38193315919089</v>
+        <v>16.89718409872521</v>
       </c>
       <c r="I38" t="n">
         <v>2.437832633162154</v>
@@ -7177,16 +7177,16 @@
         <v>3.417978136102533</v>
       </c>
       <c r="K38" t="n">
-        <v>13.13197138347071</v>
+        <v>13.13197138347073</v>
       </c>
       <c r="L38" t="n">
         <v>31.17957527878664</v>
       </c>
       <c r="M38" t="n">
-        <v>56.40729559797713</v>
+        <v>56.40729559797714</v>
       </c>
       <c r="N38" t="n">
-        <v>82.79297066826203</v>
+        <v>82.79297066826206</v>
       </c>
       <c r="O38" t="n">
         <v>105.5412354747655</v>
@@ -7201,25 +7201,25 @@
         <v>109.2393292942614</v>
       </c>
       <c r="S38" t="n">
-        <v>109.2393292942614</v>
+        <v>78.45861422908266</v>
       </c>
       <c r="T38" t="n">
-        <v>109.2393292942614</v>
+        <v>78.45861422908266</v>
       </c>
       <c r="U38" t="n">
-        <v>109.2393292942614</v>
+        <v>78.45861422908266</v>
       </c>
       <c r="V38" t="n">
-        <v>109.2393292942614</v>
+        <v>47.67789916390393</v>
       </c>
       <c r="W38" t="n">
-        <v>109.2393292942614</v>
+        <v>47.67789916390393</v>
       </c>
       <c r="X38" t="n">
-        <v>109.2393292942614</v>
+        <v>47.67789916390393</v>
       </c>
       <c r="Y38" t="n">
-        <v>109.2393292942614</v>
+        <v>47.67789916390393</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>91.11091659292902</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="C39" t="n">
-        <v>63.99926276351959</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="D39" t="n">
-        <v>33.21854769834087</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="E39" t="n">
-        <v>33.21854769834087</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="F39" t="n">
-        <v>33.21854769834087</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="G39" t="n">
         <v>2.437832633162154</v>
@@ -7256,16 +7256,16 @@
         <v>2.437832633162154</v>
       </c>
       <c r="K39" t="n">
-        <v>10.90930567516432</v>
+        <v>10.90930567516427</v>
       </c>
       <c r="L39" t="n">
-        <v>29.82765956255549</v>
+        <v>29.82765956255545</v>
       </c>
       <c r="M39" t="n">
-        <v>55.04997730602887</v>
+        <v>55.04997730602884</v>
       </c>
       <c r="N39" t="n">
-        <v>83.28125954763215</v>
+        <v>83.28125954763212</v>
       </c>
       <c r="O39" t="n">
         <v>105.4966506502405</v>
@@ -7286,19 +7286,19 @@
         <v>121.8916316581077</v>
       </c>
       <c r="U39" t="n">
-        <v>121.8916316581077</v>
+        <v>91.110916592929</v>
       </c>
       <c r="V39" t="n">
-        <v>121.8916316581077</v>
+        <v>91.110916592929</v>
       </c>
       <c r="W39" t="n">
-        <v>121.8916316581077</v>
+        <v>60.33020152775028</v>
       </c>
       <c r="X39" t="n">
-        <v>91.11091659292902</v>
+        <v>33.21854769834088</v>
       </c>
       <c r="Y39" t="n">
-        <v>91.11091659292902</v>
+        <v>2.437832633162154</v>
       </c>
     </row>
     <row r="40">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.437832633162154</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="C40" t="n">
-        <v>2.437832633162154</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="D40" t="n">
         <v>2.437832633162154</v>
@@ -7338,46 +7338,46 @@
         <v>2.437832633162154</v>
       </c>
       <c r="L40" t="n">
-        <v>4.393946466374013</v>
+        <v>4.393946466374016</v>
       </c>
       <c r="M40" t="n">
-        <v>6.985865225902378</v>
+        <v>6.985865225902385</v>
       </c>
       <c r="N40" t="n">
-        <v>10.79300191026899</v>
+        <v>10.793001910269</v>
       </c>
       <c r="O40" t="n">
-        <v>11.00863189209704</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="P40" t="n">
-        <v>11.00863189209704</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="Q40" t="n">
-        <v>11.00863189209704</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="R40" t="n">
-        <v>11.00863189209704</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="S40" t="n">
-        <v>11.00863189209704</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="T40" t="n">
-        <v>11.00863189209704</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="U40" t="n">
-        <v>11.00863189209704</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="V40" t="n">
-        <v>2.437832633162154</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="W40" t="n">
-        <v>2.437832633162154</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="X40" t="n">
-        <v>2.437832633162154</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.437832633162154</v>
+        <v>11.00863189209705</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.67789916390394</v>
+        <v>33.21854769834088</v>
       </c>
       <c r="C41" t="n">
-        <v>47.67789916390394</v>
+        <v>33.21854769834088</v>
       </c>
       <c r="D41" t="n">
-        <v>47.67789916390394</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="E41" t="n">
-        <v>16.89718409872522</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="F41" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="G41" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="H41" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="I41" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="J41" t="n">
-        <v>3.417978136102487</v>
+        <v>3.41797813610254</v>
       </c>
       <c r="K41" t="n">
-        <v>13.13197138347068</v>
+        <v>13.13197138347074</v>
       </c>
       <c r="L41" t="n">
-        <v>31.17957527878661</v>
+        <v>31.17957527878667</v>
       </c>
       <c r="M41" t="n">
-        <v>56.4072955979771</v>
+        <v>56.40729559797717</v>
       </c>
       <c r="N41" t="n">
-        <v>82.792970668262</v>
+        <v>82.79297066826209</v>
       </c>
       <c r="O41" t="n">
-        <v>105.5412354747655</v>
+        <v>105.5412354747656</v>
       </c>
       <c r="P41" t="n">
         <v>119.3499405478291</v>
@@ -7438,25 +7438,25 @@
         <v>109.2393292942614</v>
       </c>
       <c r="S41" t="n">
-        <v>109.2393292942614</v>
+        <v>94.77997782869832</v>
       </c>
       <c r="T41" t="n">
-        <v>78.45861422908266</v>
+        <v>94.77997782869832</v>
       </c>
       <c r="U41" t="n">
-        <v>47.67789916390394</v>
+        <v>94.77997782869832</v>
       </c>
       <c r="V41" t="n">
-        <v>47.67789916390394</v>
+        <v>94.77997782869832</v>
       </c>
       <c r="W41" t="n">
-        <v>47.67789916390394</v>
+        <v>63.9992627635196</v>
       </c>
       <c r="X41" t="n">
-        <v>47.67789916390394</v>
+        <v>63.9992627635196</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.67789916390394</v>
+        <v>63.9992627635196</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.437832633162154</v>
+        <v>91.11091659292906</v>
       </c>
       <c r="C42" t="n">
-        <v>2.437832633162154</v>
+        <v>63.9992627635196</v>
       </c>
       <c r="D42" t="n">
-        <v>2.437832633162154</v>
+        <v>33.21854769834088</v>
       </c>
       <c r="E42" t="n">
-        <v>2.437832633162154</v>
+        <v>33.21854769834088</v>
       </c>
       <c r="F42" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="G42" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="H42" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="I42" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="J42" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="K42" t="n">
-        <v>10.90930567516432</v>
+        <v>10.90930567516433</v>
       </c>
       <c r="L42" t="n">
-        <v>29.82765956255548</v>
+        <v>29.8276595625555</v>
       </c>
       <c r="M42" t="n">
-        <v>55.04997730602886</v>
+        <v>55.04997730602889</v>
       </c>
       <c r="N42" t="n">
-        <v>83.28125954763213</v>
+        <v>83.28125954763217</v>
       </c>
       <c r="O42" t="n">
         <v>105.4966506502405</v>
@@ -7511,31 +7511,31 @@
         <v>120.1848372890271</v>
       </c>
       <c r="Q42" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="R42" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="S42" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="T42" t="n">
-        <v>91.11091659292899</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="U42" t="n">
-        <v>91.11091659292899</v>
+        <v>91.11091659292906</v>
       </c>
       <c r="V42" t="n">
-        <v>60.33020152775027</v>
+        <v>91.11091659292906</v>
       </c>
       <c r="W42" t="n">
-        <v>29.54948646257155</v>
+        <v>91.11091659292906</v>
       </c>
       <c r="X42" t="n">
-        <v>29.54948646257155</v>
+        <v>91.11091659292906</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.54948646257155</v>
+        <v>91.11091659292906</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>11.00863189209704</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="C43" t="n">
-        <v>11.00863189209704</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="D43" t="n">
-        <v>11.00863189209704</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="E43" t="n">
-        <v>11.00863189209704</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="F43" t="n">
-        <v>11.00863189209704</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="G43" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="H43" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="I43" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="J43" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="K43" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="L43" t="n">
-        <v>4.393946466374013</v>
+        <v>4.393946466374016</v>
       </c>
       <c r="M43" t="n">
-        <v>6.985865225902378</v>
+        <v>6.985865225902385</v>
       </c>
       <c r="N43" t="n">
-        <v>10.79300191026899</v>
+        <v>10.793001910269</v>
       </c>
       <c r="O43" t="n">
-        <v>11.00863189209704</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="P43" t="n">
-        <v>11.00863189209704</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="Q43" t="n">
-        <v>11.00863189209704</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="R43" t="n">
-        <v>11.00863189209704</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="S43" t="n">
-        <v>11.00863189209704</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="T43" t="n">
-        <v>11.00863189209704</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="U43" t="n">
-        <v>11.00863189209704</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="V43" t="n">
-        <v>11.00863189209704</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="W43" t="n">
-        <v>11.00863189209704</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="X43" t="n">
-        <v>11.00863189209704</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="Y43" t="n">
-        <v>11.00863189209704</v>
+        <v>2.437832633162155</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>121.8916316581077</v>
+        <v>47.67789916390394</v>
       </c>
       <c r="C44" t="n">
-        <v>94.77997782869829</v>
+        <v>47.67789916390394</v>
       </c>
       <c r="D44" t="n">
-        <v>63.99926276351957</v>
+        <v>33.21854769834088</v>
       </c>
       <c r="E44" t="n">
-        <v>33.21854769834086</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="F44" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="G44" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="H44" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="I44" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="J44" t="n">
-        <v>3.417978136102535</v>
+        <v>3.41797813610254</v>
       </c>
       <c r="K44" t="n">
-        <v>13.13197138347073</v>
+        <v>13.13197138347074</v>
       </c>
       <c r="L44" t="n">
-        <v>31.17957527878665</v>
+        <v>31.17957527878667</v>
       </c>
       <c r="M44" t="n">
-        <v>56.40729559797714</v>
+        <v>56.40729559797717</v>
       </c>
       <c r="N44" t="n">
-        <v>82.79297066826204</v>
+        <v>82.79297066826209</v>
       </c>
       <c r="O44" t="n">
-        <v>105.5412354747655</v>
+        <v>105.5412354747656</v>
       </c>
       <c r="P44" t="n">
         <v>119.3499405478291</v>
@@ -7672,28 +7672,28 @@
         <v>121.8916316581077</v>
       </c>
       <c r="R44" t="n">
-        <v>121.8916316581077</v>
+        <v>109.2393292942614</v>
       </c>
       <c r="S44" t="n">
-        <v>121.8916316581077</v>
+        <v>109.2393292942614</v>
       </c>
       <c r="T44" t="n">
-        <v>121.8916316581077</v>
+        <v>109.2393292942614</v>
       </c>
       <c r="U44" t="n">
-        <v>121.8916316581077</v>
+        <v>109.2393292942614</v>
       </c>
       <c r="V44" t="n">
-        <v>121.8916316581077</v>
+        <v>109.2393292942614</v>
       </c>
       <c r="W44" t="n">
-        <v>121.8916316581077</v>
+        <v>109.2393292942614</v>
       </c>
       <c r="X44" t="n">
-        <v>121.8916316581077</v>
+        <v>78.45861422908267</v>
       </c>
       <c r="Y44" t="n">
-        <v>121.8916316581077</v>
+        <v>47.67789916390394</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>73.66794036141339</v>
+        <v>33.21854769834088</v>
       </c>
       <c r="C45" t="n">
-        <v>73.66794036141339</v>
+        <v>33.21854769834088</v>
       </c>
       <c r="D45" t="n">
-        <v>73.66794036141339</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="E45" t="n">
-        <v>73.66794036141339</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="F45" t="n">
-        <v>73.66794036141339</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="G45" t="n">
-        <v>42.88722529623467</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="H45" t="n">
-        <v>12.10651023105597</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="I45" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="J45" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162111</v>
       </c>
       <c r="K45" t="n">
-        <v>10.90930567516432</v>
+        <v>10.90930567516428</v>
       </c>
       <c r="L45" t="n">
-        <v>29.82765956255549</v>
+        <v>29.82765956255546</v>
       </c>
       <c r="M45" t="n">
-        <v>55.04997730602887</v>
+        <v>55.04997730602885</v>
       </c>
       <c r="N45" t="n">
-        <v>83.28125954763215</v>
+        <v>83.28125954763213</v>
       </c>
       <c r="O45" t="n">
         <v>105.4966506502405</v>
@@ -7757,22 +7757,22 @@
         <v>121.8916316581077</v>
       </c>
       <c r="T45" t="n">
-        <v>121.8916316581077</v>
+        <v>91.11091659292902</v>
       </c>
       <c r="U45" t="n">
-        <v>104.4486554265921</v>
+        <v>63.9992627635196</v>
       </c>
       <c r="V45" t="n">
-        <v>73.66794036141339</v>
+        <v>63.9992627635196</v>
       </c>
       <c r="W45" t="n">
-        <v>73.66794036141339</v>
+        <v>63.9992627635196</v>
       </c>
       <c r="X45" t="n">
-        <v>73.66794036141339</v>
+        <v>33.21854769834088</v>
       </c>
       <c r="Y45" t="n">
-        <v>73.66794036141339</v>
+        <v>33.21854769834088</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="C46" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="D46" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="E46" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="F46" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="G46" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="H46" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="I46" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="J46" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="K46" t="n">
-        <v>2.437832633162154</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="L46" t="n">
-        <v>4.393946466374012</v>
+        <v>4.393946466374016</v>
       </c>
       <c r="M46" t="n">
-        <v>6.985865225902376</v>
+        <v>6.985865225902385</v>
       </c>
       <c r="N46" t="n">
-        <v>10.79300191026899</v>
+        <v>10.793001910269</v>
       </c>
       <c r="O46" t="n">
-        <v>11.00863189209703</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="P46" t="n">
-        <v>11.00863189209703</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="Q46" t="n">
-        <v>11.00863189209703</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="R46" t="n">
-        <v>11.00863189209703</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="S46" t="n">
-        <v>11.00863189209703</v>
+        <v>11.00863189209705</v>
       </c>
       <c r="T46" t="n">
-        <v>11.00863189209703</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="U46" t="n">
-        <v>11.00863189209703</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="V46" t="n">
-        <v>11.00863189209703</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="W46" t="n">
-        <v>11.00863189209703</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="X46" t="n">
-        <v>11.00863189209703</v>
+        <v>2.437832633162155</v>
       </c>
       <c r="Y46" t="n">
-        <v>11.00863189209703</v>
+        <v>2.437832633162155</v>
       </c>
     </row>
   </sheetData>
@@ -22567,13 +22567,13 @@
         <v>292.7065397078163</v>
       </c>
       <c r="I2" t="n">
-        <v>26.3295615791925</v>
+        <v>26.32956157919251</v>
       </c>
       <c r="J2" t="n">
         <v>11.3271920526384</v>
       </c>
       <c r="K2" t="n">
-        <v>8.648232478941665</v>
+        <v>8.648232478941662</v>
       </c>
       <c r="L2" t="n">
         <v>4.671789743482165</v>
@@ -22591,7 +22591,7 @@
         <v>6.920859413233046</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.10441994252908</v>
+        <v>13.10441994252907</v>
       </c>
       <c r="R2" t="n">
         <v>21.64193954842993</v>
@@ -22740,13 +22740,13 @@
         <v>7.586266198249906</v>
       </c>
       <c r="N4" t="n">
-        <v>6.11613633033911</v>
+        <v>6.116136330339108</v>
       </c>
       <c r="O4" t="n">
-        <v>8.983460966937351</v>
+        <v>8.983460966937349</v>
       </c>
       <c r="P4" t="n">
-        <v>10.81576169638987</v>
+        <v>10.81576169638986</v>
       </c>
       <c r="Q4" t="n">
         <v>16.61252925040833</v>
@@ -23041,13 +23041,13 @@
         <v>292.7065397078163</v>
       </c>
       <c r="I8" t="n">
-        <v>26.32956157919251</v>
+        <v>26.3295615791925</v>
       </c>
       <c r="J8" t="n">
         <v>11.3271920526384</v>
       </c>
       <c r="K8" t="n">
-        <v>8.648232478941662</v>
+        <v>8.648232478941665</v>
       </c>
       <c r="L8" t="n">
         <v>4.671789743482165</v>
@@ -23065,7 +23065,7 @@
         <v>6.920859413233046</v>
       </c>
       <c r="Q8" t="n">
-        <v>13.10441994252907</v>
+        <v>13.10441994252908</v>
       </c>
       <c r="R8" t="n">
         <v>21.64193954842993</v>
@@ -23214,13 +23214,13 @@
         <v>7.586266198249906</v>
       </c>
       <c r="N10" t="n">
-        <v>6.116136330339108</v>
+        <v>6.11613633033911</v>
       </c>
       <c r="O10" t="n">
-        <v>8.983460966937349</v>
+        <v>8.983460966937351</v>
       </c>
       <c r="P10" t="n">
-        <v>10.81576169638986</v>
+        <v>10.81576169638987</v>
       </c>
       <c r="Q10" t="n">
         <v>16.61252925040833</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>391.7873859716996</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>415.6328336360871</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>397.8546757767058</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23275,13 +23275,13 @@
         <v>376.0986545356089</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6012707536137</v>
+        <v>291.4637654305288</v>
       </c>
       <c r="I11" t="n">
-        <v>21.6512210128432</v>
+        <v>21.65122101284321</v>
       </c>
       <c r="J11" t="n">
-        <v>1.027774177190924</v>
+        <v>1.027774177190942</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>14.01919626068103</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>74.68260272092103</v>
+        <v>71.83819335543281</v>
       </c>
       <c r="T11" t="n">
         <v>217.2519426784705</v>
@@ -23345,22 +23345,22 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E12" t="n">
-        <v>103.6549143897921</v>
+        <v>81.34441355758828</v>
       </c>
       <c r="F12" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>81.92611572630642</v>
+        <v>92.93424870815717</v>
       </c>
       <c r="H12" t="n">
-        <v>27.25121589670745</v>
+        <v>27.25121589670751</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.700923269594412</v>
+        <v>3.700923269594423</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>12.56012682656194</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>77.18643047130132</v>
+        <v>53.32393579438622</v>
       </c>
       <c r="T12" t="n">
-        <v>115.8772050782725</v>
+        <v>139.7396997551877</v>
       </c>
       <c r="U12" t="n">
-        <v>159.0462440902488</v>
+        <v>182.908738767164</v>
       </c>
       <c r="V12" t="n">
         <v>202.9234074721264</v>
@@ -23439,10 +23439,10 @@
         <v>94.25831015433721</v>
       </c>
       <c r="J13" t="n">
-        <v>10.02784554495552</v>
+        <v>10.02784554495553</v>
       </c>
       <c r="K13" t="n">
-        <v>1.340722532576323</v>
+        <v>0.051171076936805</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23454,16 +23454,16 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.289551455639597</v>
       </c>
       <c r="P13" t="n">
-        <v>4.232292945534098</v>
+        <v>4.232292945534113</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.05447673506464</v>
+        <v>12.05447673506465</v>
       </c>
       <c r="R13" t="n">
-        <v>39.82119477246846</v>
+        <v>39.82119477246847</v>
       </c>
       <c r="S13" t="n">
         <v>165.8186421891014</v>
@@ -23497,28 +23497,28 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>398.7692280099177</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>397.8546757767058</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>376.0986545356089</v>
+        <v>399.961149212524</v>
       </c>
       <c r="H14" t="n">
-        <v>291.4637654305288</v>
+        <v>271.4734542962929</v>
       </c>
       <c r="I14" t="n">
-        <v>21.6512210128432</v>
+        <v>21.65122101284321</v>
       </c>
       <c r="J14" t="n">
-        <v>1.027774177190924</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>14.01919626068103</v>
       </c>
       <c r="S14" t="n">
-        <v>71.83819335543274</v>
+        <v>95.70068803234791</v>
       </c>
       <c r="T14" t="n">
-        <v>217.2519426784705</v>
+        <v>193.3894480015554</v>
       </c>
       <c r="U14" t="n">
         <v>255.7445985036381</v>
       </c>
       <c r="V14" t="n">
-        <v>330.0520260480978</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>386.5847135325033</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23582,19 +23582,19 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E15" t="n">
-        <v>96.34770467753579</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F15" t="n">
-        <v>68.8468773370097</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>69.07175403124199</v>
+        <v>92.93424870815717</v>
       </c>
       <c r="H15" t="n">
-        <v>27.25121589670745</v>
+        <v>51.11371057362263</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.00995232957613</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>12.56012682656194</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>77.18643047130132</v>
       </c>
       <c r="T15" t="n">
-        <v>139.7396997551877</v>
+        <v>115.8772050782726</v>
       </c>
       <c r="U15" t="n">
-        <v>182.908738767164</v>
+        <v>178.1517035518935</v>
       </c>
       <c r="V15" t="n">
-        <v>202.9234074721264</v>
+        <v>179.0609127952113</v>
       </c>
       <c r="W15" t="n">
-        <v>194.556163395115</v>
+        <v>170.6936687181998</v>
       </c>
       <c r="X15" t="n">
         <v>161.8425727710037</v>
@@ -23664,7 +23664,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>166.6633718871109</v>
       </c>
       <c r="G16" t="n">
         <v>164.4443446983998</v>
@@ -23679,7 +23679,7 @@
         <v>10.02784554495552</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530955673011039</v>
+        <v>3.530955673011043</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23691,16 +23691,16 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.289551455639586</v>
       </c>
       <c r="P16" t="n">
-        <v>2.042059805099383</v>
+        <v>4.232292945534102</v>
       </c>
       <c r="Q16" t="n">
         <v>12.05447673506464</v>
       </c>
       <c r="R16" t="n">
-        <v>39.82119477246846</v>
+        <v>39.82119477246847</v>
       </c>
       <c r="S16" t="n">
         <v>165.8186421891014</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>385.1769727340878</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>392.158814772306</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>392.2191573157344</v>
+        <v>388.5867866923227</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -23749,7 +23749,7 @@
         <v>399.9373748401208</v>
       </c>
       <c r="H17" t="n">
-        <v>291.2202861391545</v>
+        <v>260.7473782246275</v>
       </c>
       <c r="I17" t="n">
         <v>20.73465952076844</v>
@@ -23788,7 +23788,7 @@
         <v>217.1478703632754</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7426965538458</v>
+        <v>225.2697886393189</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23800,7 +23800,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>370.8109894301316</v>
+        <v>374.4433600535432</v>
       </c>
     </row>
     <row r="18">
@@ -23819,19 +23819,19 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E18" t="n">
-        <v>88.88549133839871</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F18" t="n">
-        <v>62.23646409939795</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>62.44862038296186</v>
+        <v>92.92152829748879</v>
       </c>
       <c r="H18" t="n">
-        <v>20.51795027185111</v>
+        <v>20.5179502718511</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.571990821914873</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>11.77034553962528</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>76.95015442226369</v>
@@ -23867,13 +23867,13 @@
         <v>139.6884275735901</v>
       </c>
       <c r="U18" t="n">
-        <v>182.907901898041</v>
+        <v>170.336833564358</v>
       </c>
       <c r="V18" t="n">
-        <v>202.9234074721264</v>
+        <v>172.4504995575995</v>
       </c>
       <c r="W18" t="n">
-        <v>194.556163395115</v>
+        <v>164.083255480588</v>
       </c>
       <c r="X18" t="n">
         <v>161.8425727710037</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.7792177585995</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -23898,7 +23898,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>156.0610325223294</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -23977,7 +23977,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>397.6641641089551</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -23986,10 +23986,10 @@
         <v>399.9373748401208</v>
       </c>
       <c r="H20" t="n">
-        <v>260.7473782246276</v>
+        <v>291.2202861391545</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>20.73465952076844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.68602160668283</v>
+        <v>95.15892952120976</v>
       </c>
       <c r="T20" t="n">
-        <v>217.1478703632754</v>
+        <v>186.6749624487485</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7426965538458</v>
+        <v>225.2697886393189</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>323.441612810486</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>378.1126782517491</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>127.6377393258621</v>
+        <v>115.066670992179</v>
       </c>
       <c r="C21" t="n">
         <v>116.3308444476703</v>
@@ -24056,13 +24056,13 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E21" t="n">
-        <v>73.18200647526521</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F21" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>66.08099100637349</v>
+        <v>92.92152829748879</v>
       </c>
       <c r="H21" t="n">
         <v>50.99085818637803</v>
@@ -24071,7 +24071,7 @@
         <v>9.571990821914873</v>
       </c>
       <c r="J21" t="n">
-        <v>2.499123417806999</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>11.77034553962528</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>76.95015442226369</v>
       </c>
       <c r="T21" t="n">
-        <v>109.2155196590632</v>
+        <v>139.6884275735901</v>
       </c>
       <c r="U21" t="n">
-        <v>182.907901898041</v>
+        <v>152.4349939835141</v>
       </c>
       <c r="V21" t="n">
-        <v>202.9234074721264</v>
+        <v>172.4504995575995</v>
       </c>
       <c r="W21" t="n">
         <v>194.556163395115</v>
@@ -24129,7 +24129,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>161.7677462235276</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24150,7 +24150,7 @@
         <v>93.93760361421315</v>
       </c>
       <c r="J22" t="n">
-        <v>9.273874939591311</v>
+        <v>9.273874939591309</v>
       </c>
       <c r="K22" t="n">
         <v>2.291950357779644</v>
@@ -24168,7 +24168,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.942486473402763</v>
+        <v>2.942486473402759</v>
       </c>
       <c r="Q22" t="n">
         <v>11.16148158963456</v>
@@ -24177,7 +24177,7 @@
         <v>39.34168614264573</v>
       </c>
       <c r="S22" t="n">
-        <v>165.6327913918166</v>
+        <v>157.1477001254711</v>
       </c>
       <c r="T22" t="n">
         <v>240.2192429564045</v>
@@ -24208,25 +24208,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>392.158814772306</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>391.2442625390941</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>369.4644669255939</v>
+        <v>385.6226168892134</v>
       </c>
       <c r="H23" t="n">
-        <v>264.3797488480392</v>
+        <v>260.7473782246275</v>
       </c>
       <c r="I23" t="n">
-        <v>20.73465952076845</v>
+        <v>20.73465952076844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>12.52577934020788</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>95.15892952120976</v>
+        <v>64.68602160668281</v>
       </c>
       <c r="T23" t="n">
-        <v>217.1478703632754</v>
+        <v>186.6749624487485</v>
       </c>
       <c r="U23" t="n">
         <v>255.7426965538458</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>97.16483141133516</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C24" t="n">
-        <v>89.49030715655496</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D24" t="n">
         <v>102.8015588998678</v>
@@ -24308,7 +24308,7 @@
         <v>9.571990821914873</v>
       </c>
       <c r="J24" t="n">
-        <v>2.499123417806999</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>11.77034553962528</v>
       </c>
       <c r="S24" t="n">
-        <v>76.95015442226369</v>
+        <v>52.60874054895537</v>
       </c>
       <c r="T24" t="n">
-        <v>139.6884275735902</v>
+        <v>109.2155196590632</v>
       </c>
       <c r="U24" t="n">
-        <v>182.907901898041</v>
+        <v>152.4349939835141</v>
       </c>
       <c r="V24" t="n">
-        <v>202.9234074721264</v>
+        <v>172.4504995575994</v>
       </c>
       <c r="W24" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X24" t="n">
-        <v>131.3696648564768</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y24" t="n">
-        <v>107.8230518457136</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="25">
@@ -24375,10 +24375,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>161.6580652168396</v>
       </c>
       <c r="G25" t="n">
-        <v>155.9485890670562</v>
+        <v>164.4336803334017</v>
       </c>
       <c r="H25" t="n">
         <v>140.9293617846389</v>
@@ -24387,7 +24387,7 @@
         <v>93.93760361421315</v>
       </c>
       <c r="J25" t="n">
-        <v>9.273874939591311</v>
+        <v>9.273874939591309</v>
       </c>
       <c r="K25" t="n">
         <v>2.291950357779644</v>
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.942486473402763</v>
+        <v>2.942486473402759</v>
       </c>
       <c r="Q25" t="n">
         <v>11.16148158963456</v>
@@ -24445,16 +24445,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>408.3169647359255</v>
+        <v>392.1588147723059</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>391.2442625390941</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>390.4000320779668</v>
       </c>
       <c r="G26" t="n">
         <v>399.9373748401208</v>
@@ -24463,7 +24463,7 @@
         <v>291.2202861391545</v>
       </c>
       <c r="I26" t="n">
-        <v>20.73465952076845</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>6.419901569861001</v>
       </c>
       <c r="S26" t="n">
         <v>95.15892952120976</v>
@@ -24499,7 +24499,7 @@
         <v>217.1478703632754</v>
       </c>
       <c r="U26" t="n">
-        <v>225.2697886393189</v>
+        <v>255.7426965538458</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -24508,10 +24508,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>377.1298909294033</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>370.8109894301317</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24524,28 +24524,28 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C27" t="n">
-        <v>85.85793653314335</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D27" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E27" t="n">
-        <v>103.6549143897921</v>
+        <v>73.18200647526521</v>
       </c>
       <c r="F27" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>62.44862038296187</v>
+        <v>66.08099100637344</v>
       </c>
       <c r="H27" t="n">
-        <v>36.2214351349846</v>
+        <v>20.5179502718511</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.571990821914873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>2.499123417806999</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>76.95015442226369</v>
       </c>
       <c r="T27" t="n">
-        <v>109.2155196590632</v>
+        <v>139.6884275735901</v>
       </c>
       <c r="U27" t="n">
-        <v>182.907901898041</v>
+        <v>152.4349939835141</v>
       </c>
       <c r="V27" t="n">
         <v>202.9234074721264</v>
@@ -24609,10 +24609,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>156.0610325223294</v>
       </c>
       <c r="F28" t="n">
-        <v>161.6580652168396</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.4336803334017</v>
@@ -24624,7 +24624,7 @@
         <v>93.93760361421315</v>
       </c>
       <c r="J28" t="n">
-        <v>9.273874939591311</v>
+        <v>9.273874939591309</v>
       </c>
       <c r="K28" t="n">
         <v>2.291950357779644</v>
@@ -24642,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.942486473402763</v>
+        <v>2.942486473402759</v>
       </c>
       <c r="Q28" t="n">
         <v>11.16148158963456</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>385.1769727340878</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>392.1588147723059</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -24694,10 +24694,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>399.9373748401208</v>
+        <v>369.4644669255939</v>
       </c>
       <c r="H29" t="n">
-        <v>264.3797488480392</v>
+        <v>291.2202861391545</v>
       </c>
       <c r="I29" t="n">
         <v>20.73465952076845</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>12.52577934020788</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>95.15892952120976</v>
       </c>
       <c r="T29" t="n">
-        <v>186.6749624487485</v>
+        <v>202.833112412368</v>
       </c>
       <c r="U29" t="n">
-        <v>225.2697886393189</v>
+        <v>255.7426965538458</v>
       </c>
       <c r="V29" t="n">
-        <v>323.4416128104861</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>11.77034553962528</v>
       </c>
       <c r="S30" t="n">
-        <v>46.47724650773679</v>
+        <v>46.47724650773676</v>
       </c>
       <c r="T30" t="n">
-        <v>124.6182358221002</v>
+        <v>139.6884275735902</v>
       </c>
       <c r="U30" t="n">
         <v>152.4349939835141</v>
@@ -24827,7 +24827,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y30" t="n">
-        <v>138.2959597602405</v>
+        <v>111.4554224691252</v>
       </c>
     </row>
     <row r="31">
@@ -24846,7 +24846,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>156.0610325223294</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24894,7 +24894,7 @@
         <v>240.2192429564045</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3738374869546</v>
+        <v>268.8887462206091</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -24919,25 +24919,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>392.158814772306</v>
+        <v>392.1588147723059</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>407.4024125027136</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>390.4000320779668</v>
+        <v>394.0324027013784</v>
       </c>
       <c r="G32" t="n">
-        <v>399.9373748401208</v>
+        <v>369.4644669255939</v>
       </c>
       <c r="H32" t="n">
-        <v>260.7473782246276</v>
+        <v>291.2202861391545</v>
       </c>
       <c r="I32" t="n">
-        <v>20.73465952076845</v>
+        <v>20.73465952076844</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>12.52577934020788</v>
       </c>
       <c r="S32" t="n">
         <v>95.15892952120976</v>
@@ -24982,7 +24982,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>377.1298909294032</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25010,13 +25010,13 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>92.92152829748879</v>
+        <v>87.42332736791364</v>
       </c>
       <c r="H33" t="n">
         <v>50.99085818637803</v>
       </c>
       <c r="I33" t="n">
-        <v>9.571990821914873</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>2.499123417806999</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>11.77034553962528</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>76.95015442226369</v>
@@ -25052,13 +25052,13 @@
         <v>109.2155196590632</v>
       </c>
       <c r="U33" t="n">
-        <v>156.0673646069257</v>
+        <v>152.4349939835141</v>
       </c>
       <c r="V33" t="n">
         <v>172.4504995575995</v>
       </c>
       <c r="W33" t="n">
-        <v>164.083255480588</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X33" t="n">
         <v>161.8425727710037</v>
@@ -25098,7 +25098,7 @@
         <v>93.93760361421315</v>
       </c>
       <c r="J34" t="n">
-        <v>9.273874939591311</v>
+        <v>9.273874939591309</v>
       </c>
       <c r="K34" t="n">
         <v>2.291950357779644</v>
@@ -25116,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.942486473402763</v>
+        <v>2.942486473402759</v>
       </c>
       <c r="Q34" t="n">
         <v>11.16148158963456</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>409.5440028782679</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>392.1588147723059</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -25168,13 +25168,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>399.9373748401208</v>
+        <v>369.4644669255939</v>
       </c>
       <c r="H35" t="n">
         <v>291.2202861391545</v>
       </c>
       <c r="I35" t="n">
-        <v>20.73465952076845</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>12.52577934020788</v>
       </c>
       <c r="S35" t="n">
         <v>95.15892952120976</v>
@@ -25213,16 +25213,16 @@
         <v>255.7426965538458</v>
       </c>
       <c r="V35" t="n">
-        <v>339.5997627741056</v>
+        <v>323.441612810486</v>
       </c>
       <c r="W35" t="n">
-        <v>361.9545282881297</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>377.1298909294033</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>370.8109894301317</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25232,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>97.16483141133517</v>
+        <v>124.6386618140939</v>
       </c>
       <c r="C36" t="n">
-        <v>85.85793653314335</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D36" t="n">
-        <v>102.8015588998678</v>
+        <v>72.32865098534089</v>
       </c>
       <c r="E36" t="n">
-        <v>76.81437709867674</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F36" t="n">
-        <v>92.70937201392488</v>
+        <v>62.23646409939794</v>
       </c>
       <c r="G36" t="n">
-        <v>92.92152829748879</v>
+        <v>62.44862038296186</v>
       </c>
       <c r="H36" t="n">
         <v>50.99085818637803</v>
       </c>
       <c r="I36" t="n">
-        <v>9.571990821914873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.499123417806999</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>11.77034553962528</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>76.95015442226369</v>
       </c>
       <c r="T36" t="n">
-        <v>139.6884275735902</v>
+        <v>139.6884275735901</v>
       </c>
       <c r="U36" t="n">
         <v>182.907901898041</v>
       </c>
       <c r="V36" t="n">
-        <v>172.4504995575995</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W36" t="n">
         <v>194.556163395115</v>
@@ -25320,7 +25320,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>156.0610325223294</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -25335,7 +25335,7 @@
         <v>93.93760361421315</v>
       </c>
       <c r="J37" t="n">
-        <v>9.273874939591311</v>
+        <v>9.273874939591309</v>
       </c>
       <c r="K37" t="n">
         <v>2.291950357779644</v>
@@ -25353,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.942486473402763</v>
+        <v>2.942486473402759</v>
       </c>
       <c r="Q37" t="n">
         <v>11.16148158963456</v>
@@ -25365,7 +25365,7 @@
         <v>165.6327913918166</v>
       </c>
       <c r="T37" t="n">
-        <v>240.2192429564045</v>
+        <v>231.734151690059</v>
       </c>
       <c r="U37" t="n">
         <v>277.3738374869546</v>
@@ -25393,16 +25393,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>392.1588147723059</v>
       </c>
       <c r="D38" t="n">
-        <v>388.5867866923228</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>397.6641641089551</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>390.4000320779668</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>399.9373748401208</v>
@@ -25411,7 +25411,7 @@
         <v>291.2202861391545</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6.419901569861016</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>95.15892952120976</v>
+        <v>64.68602160668283</v>
       </c>
       <c r="T38" t="n">
         <v>217.1478703632754</v>
@@ -25450,7 +25450,7 @@
         <v>255.7426965538458</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>323.441612810486</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25472,10 +25472,10 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C39" t="n">
-        <v>89.49030715655493</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D39" t="n">
-        <v>72.32865098534089</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E39" t="n">
         <v>103.6549143897921</v>
@@ -25484,7 +25484,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>62.44862038296186</v>
+        <v>92.92152829748879</v>
       </c>
       <c r="H39" t="n">
         <v>50.99085818637803</v>
@@ -25523,22 +25523,22 @@
         <v>76.95015442226369</v>
       </c>
       <c r="T39" t="n">
-        <v>139.6884275735902</v>
+        <v>139.6884275735901</v>
       </c>
       <c r="U39" t="n">
-        <v>182.907901898041</v>
+        <v>152.4349939835141</v>
       </c>
       <c r="V39" t="n">
         <v>202.9234074721264</v>
       </c>
       <c r="W39" t="n">
-        <v>194.556163395115</v>
+        <v>164.083255480588</v>
       </c>
       <c r="X39" t="n">
-        <v>131.3696648564768</v>
+        <v>135.0020354798884</v>
       </c>
       <c r="Y39" t="n">
-        <v>138.2959597602405</v>
+        <v>107.8230518457136</v>
       </c>
     </row>
     <row r="40">
@@ -25554,7 +25554,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>153.1985138781515</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25572,7 +25572,7 @@
         <v>93.93760361421315</v>
       </c>
       <c r="J40" t="n">
-        <v>9.273874939591311</v>
+        <v>9.273874939591309</v>
       </c>
       <c r="K40" t="n">
         <v>2.291950357779644</v>
@@ -25590,7 +25590,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.942486473402763</v>
+        <v>2.942486473402759</v>
       </c>
       <c r="Q40" t="n">
         <v>11.16148158963456</v>
@@ -25608,7 +25608,7 @@
         <v>277.3738374869546</v>
       </c>
       <c r="V40" t="n">
-        <v>270.4092614517058</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>385.1769727340878</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>388.5867866923227</v>
       </c>
       <c r="E41" t="n">
-        <v>391.2442625390941</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>406.5581820415863</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>399.9373748401208</v>
@@ -25648,7 +25648,7 @@
         <v>291.2202861391545</v>
       </c>
       <c r="I41" t="n">
-        <v>20.73465952076845</v>
+        <v>20.73465952076844</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>95.15892952120976</v>
+        <v>80.84417157030231</v>
       </c>
       <c r="T41" t="n">
-        <v>186.6749624487485</v>
+        <v>217.1478703632754</v>
       </c>
       <c r="U41" t="n">
-        <v>225.2697886393189</v>
+        <v>255.7426965538458</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>361.9545282881296</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>100.7972020347468</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C42" t="n">
-        <v>116.3308444476703</v>
+        <v>89.49030715655491</v>
       </c>
       <c r="D42" t="n">
-        <v>102.8015588998678</v>
+        <v>72.32865098534089</v>
       </c>
       <c r="E42" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F42" t="n">
-        <v>92.70937201392488</v>
+        <v>62.23646409939794</v>
       </c>
       <c r="G42" t="n">
         <v>92.92152829748879</v>
@@ -25760,16 +25760,16 @@
         <v>76.95015442226369</v>
       </c>
       <c r="T42" t="n">
-        <v>109.2155196590632</v>
+        <v>139.6884275735901</v>
       </c>
       <c r="U42" t="n">
-        <v>182.907901898041</v>
+        <v>152.4349939835141</v>
       </c>
       <c r="V42" t="n">
-        <v>172.4504995575995</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W42" t="n">
-        <v>164.083255480588</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X42" t="n">
         <v>161.8425727710037</v>
@@ -25800,7 +25800,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>155.9485890670562</v>
+        <v>164.4336803334017</v>
       </c>
       <c r="H43" t="n">
         <v>140.9293617846389</v>
@@ -25809,7 +25809,7 @@
         <v>93.93760361421315</v>
       </c>
       <c r="J43" t="n">
-        <v>9.273874939591311</v>
+        <v>9.273874939591309</v>
       </c>
       <c r="K43" t="n">
         <v>2.291950357779644</v>
@@ -25827,7 +25827,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.942486473402763</v>
+        <v>2.942486473402759</v>
       </c>
       <c r="Q43" t="n">
         <v>11.16148158963456</v>
@@ -25839,7 +25839,7 @@
         <v>165.6327913918166</v>
       </c>
       <c r="T43" t="n">
-        <v>240.2192429564045</v>
+        <v>231.734151690059</v>
       </c>
       <c r="U43" t="n">
         <v>277.3738374869546</v>
@@ -25867,16 +25867,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>395.7911853957175</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>388.5867866923228</v>
+        <v>404.7449366559422</v>
       </c>
       <c r="E44" t="n">
         <v>391.2442625390941</v>
       </c>
       <c r="F44" t="n">
-        <v>390.4000320779668</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>399.9373748401208</v>
@@ -25885,7 +25885,7 @@
         <v>291.2202861391545</v>
       </c>
       <c r="I44" t="n">
-        <v>20.73465952076845</v>
+        <v>20.73465952076844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>12.52577934020788</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>95.15892952120976</v>
@@ -25930,10 +25930,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>377.1298909294032</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>370.8109894301316</v>
       </c>
     </row>
     <row r="45">
@@ -25949,7 +25949,7 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D45" t="n">
-        <v>102.8015588998678</v>
+        <v>72.32865098534089</v>
       </c>
       <c r="E45" t="n">
         <v>103.6549143897921</v>
@@ -25958,13 +25958,13 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>62.44862038296187</v>
+        <v>92.92152829748879</v>
       </c>
       <c r="H45" t="n">
-        <v>20.51795027185111</v>
+        <v>50.99085818637803</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>9.571990821914873</v>
       </c>
       <c r="J45" t="n">
         <v>2.499123417806999</v>
@@ -25997,19 +25997,19 @@
         <v>76.95015442226369</v>
       </c>
       <c r="T45" t="n">
-        <v>139.6884275735902</v>
+        <v>109.2155196590632</v>
       </c>
       <c r="U45" t="n">
-        <v>165.6393554288406</v>
+        <v>156.0673646069257</v>
       </c>
       <c r="V45" t="n">
-        <v>172.4504995575995</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W45" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X45" t="n">
-        <v>161.8425727710037</v>
+        <v>131.3696648564768</v>
       </c>
       <c r="Y45" t="n">
         <v>138.2959597602405</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.7792177585995</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -26046,7 +26046,7 @@
         <v>93.93760361421315</v>
       </c>
       <c r="J46" t="n">
-        <v>9.273874939591311</v>
+        <v>9.273874939591309</v>
       </c>
       <c r="K46" t="n">
         <v>2.291950357779644</v>
@@ -26064,7 +26064,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.942486473402763</v>
+        <v>2.942486473402759</v>
       </c>
       <c r="Q46" t="n">
         <v>11.16148158963456</v>
@@ -26076,7 +26076,7 @@
         <v>165.6327913918166</v>
       </c>
       <c r="T46" t="n">
-        <v>240.2192429564045</v>
+        <v>231.734151690059</v>
       </c>
       <c r="U46" t="n">
         <v>277.3738374869546</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>69137.8431351051</v>
+        <v>69137.84313510504</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69137.84313510508</v>
+        <v>69137.84313510507</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>74467.09115892871</v>
+        <v>74467.09115892874</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74467.09115892871</v>
+        <v>74467.09115892868</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>74467.09115892868</v>
+        <v>74467.09115892871</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>74467.09115892868</v>
+        <v>74467.09115892871</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>74467.09115892868</v>
+        <v>74467.09115892871</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>74467.09115892868</v>
+        <v>74467.09115892874</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11803.31940997116</v>
+        <v>11803.31940997117</v>
       </c>
       <c r="C2" t="n">
         <v>11803.31940997116</v>
@@ -26322,7 +26322,7 @@
         <v>11803.31940997116</v>
       </c>
       <c r="E2" t="n">
-        <v>18855.77540048321</v>
+        <v>18855.77540048319</v>
       </c>
       <c r="F2" t="n">
         <v>18855.77540048321</v>
@@ -26331,19 +26331,19 @@
         <v>20309.20667970782</v>
       </c>
       <c r="H2" t="n">
-        <v>20309.20667970784</v>
+        <v>20309.20667970782</v>
       </c>
       <c r="I2" t="n">
         <v>20309.20667970782</v>
       </c>
       <c r="J2" t="n">
-        <v>20309.20667970783</v>
+        <v>20309.20667970782</v>
       </c>
       <c r="K2" t="n">
-        <v>20309.20667970783</v>
+        <v>20309.20667970782</v>
       </c>
       <c r="L2" t="n">
-        <v>20309.20667970783</v>
+        <v>20309.20667970782</v>
       </c>
       <c r="M2" t="n">
         <v>20309.20667970782</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51097.22904562252</v>
+        <v>51097.22904562249</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>31376.16073686695</v>
+        <v>31376.16073686689</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6409.776149548672</v>
+        <v>6409.776149548694</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5946.629123465969</v>
+        <v>5946.629123465956</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1590.802556044505</v>
+        <v>1590.802556044514</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>17.41872404354273</v>
+        <v>17.41872404354268</v>
       </c>
       <c r="F4" t="n">
-        <v>17.41872404354272</v>
+        <v>17.41872404354271</v>
       </c>
       <c r="G4" t="n">
         <v>22.39251918675424</v>
       </c>
       <c r="H4" t="n">
+        <v>22.39251918675424</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22.39251918675424</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22.39251918675424</v>
+      </c>
+      <c r="K4" t="n">
         <v>22.39251918675423</v>
       </c>
-      <c r="I4" t="n">
-        <v>22.39251918675422</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22.39251918675423</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22.39251918675422</v>
-      </c>
       <c r="L4" t="n">
-        <v>22.39251918675423</v>
+        <v>22.39251918675424</v>
       </c>
       <c r="M4" t="n">
-        <v>22.39251918675423</v>
+        <v>22.39251918675424</v>
       </c>
       <c r="N4" t="n">
-        <v>22.39251918675423</v>
+        <v>22.39251918675424</v>
       </c>
       <c r="O4" t="n">
-        <v>22.39251918675423</v>
+        <v>22.39251918675424</v>
       </c>
       <c r="P4" t="n">
-        <v>22.39251918675423</v>
+        <v>22.39251918675424</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>34783.58232194311</v>
       </c>
       <c r="E5" t="n">
-        <v>3264.871964090898</v>
+        <v>3264.871964090893</v>
       </c>
       <c r="F5" t="n">
-        <v>3264.871964090898</v>
+        <v>3264.871964090896</v>
       </c>
       <c r="G5" t="n">
         <v>3795.707566887201</v>
       </c>
       <c r="H5" t="n">
-        <v>3795.7075668872</v>
+        <v>3795.707566887201</v>
       </c>
       <c r="I5" t="n">
-        <v>3795.707566887199</v>
+        <v>3795.707566887202</v>
       </c>
       <c r="J5" t="n">
-        <v>3795.7075668872</v>
+        <v>3795.707566887201</v>
       </c>
       <c r="K5" t="n">
-        <v>3795.707566887199</v>
+        <v>3795.707566887201</v>
       </c>
       <c r="L5" t="n">
-        <v>3795.707566887199</v>
+        <v>3795.707566887201</v>
       </c>
       <c r="M5" t="n">
-        <v>3795.707566887199</v>
+        <v>3795.707566887201</v>
       </c>
       <c r="N5" t="n">
-        <v>3795.7075668872</v>
+        <v>3795.707566887201</v>
       </c>
       <c r="O5" t="n">
-        <v>3795.7075668872</v>
+        <v>3795.707566887201</v>
       </c>
       <c r="P5" t="n">
-        <v>3795.7075668872</v>
+        <v>3795.707566887201</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74077.49195759447</v>
+        <v>-75454.90983155587</v>
       </c>
       <c r="C6" t="n">
-        <v>-22980.26291197195</v>
+        <v>-24357.68078593338</v>
       </c>
       <c r="D6" t="n">
-        <v>-22980.26291197195</v>
+        <v>-24357.68078593338</v>
       </c>
       <c r="E6" t="n">
-        <v>-15802.67602451818</v>
+        <v>-17133.07752520949</v>
       </c>
       <c r="F6" t="n">
-        <v>15573.48471234877</v>
+        <v>14243.08321165741</v>
       </c>
       <c r="G6" t="n">
-        <v>10081.3304440852</v>
+        <v>8760.618485255312</v>
       </c>
       <c r="H6" t="n">
-        <v>16491.10659363389</v>
+        <v>15170.39463480401</v>
       </c>
       <c r="I6" t="n">
-        <v>16491.10659363387</v>
+        <v>15170.39463480401</v>
       </c>
       <c r="J6" t="n">
-        <v>16491.10659363388</v>
+        <v>15170.39463480401</v>
       </c>
       <c r="K6" t="n">
-        <v>16491.10659363387</v>
+        <v>15170.39463480401</v>
       </c>
       <c r="L6" t="n">
-        <v>16491.10659363388</v>
+        <v>15170.39463480401</v>
       </c>
       <c r="M6" t="n">
-        <v>10544.4774701679</v>
+        <v>9223.765511338057</v>
       </c>
       <c r="N6" t="n">
-        <v>16491.10659363386</v>
+        <v>15170.394634804</v>
       </c>
       <c r="O6" t="n">
-        <v>14900.30403758937</v>
+        <v>13579.5920787595</v>
       </c>
       <c r="P6" t="n">
-        <v>16491.10659363387</v>
+        <v>15170.39463480401</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>53.02671201573919</v>
       </c>
       <c r="E3" t="n">
-        <v>83.21249026304841</v>
+        <v>83.21249026304835</v>
       </c>
       <c r="F3" t="n">
-        <v>83.21249026304841</v>
+        <v>83.21249026304839</v>
       </c>
       <c r="G3" t="n">
         <v>89.12636539834695</v>
       </c>
       <c r="H3" t="n">
-        <v>89.12636539834693</v>
+        <v>89.12636539834695</v>
       </c>
       <c r="I3" t="n">
-        <v>89.12636539834693</v>
+        <v>89.12636539834695</v>
       </c>
       <c r="J3" t="n">
-        <v>89.12636539834693</v>
+        <v>89.12636539834695</v>
       </c>
       <c r="K3" t="n">
         <v>89.12636539834693</v>
       </c>
       <c r="L3" t="n">
-        <v>89.12636539834693</v>
+        <v>89.12636539834695</v>
       </c>
       <c r="M3" t="n">
-        <v>89.12636539834693</v>
+        <v>89.12636539834695</v>
       </c>
       <c r="N3" t="n">
-        <v>89.12636539834693</v>
+        <v>89.12636539834695</v>
       </c>
       <c r="O3" t="n">
-        <v>89.12636539834693</v>
+        <v>89.12636539834695</v>
       </c>
       <c r="P3" t="n">
-        <v>89.12636539834693</v>
+        <v>89.12636539834695</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>23.86249467691518</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="F4" t="n">
-        <v>23.86249467691518</v>
+        <v>23.86249467691515</v>
       </c>
       <c r="G4" t="n">
         <v>30.47290791452693</v>
       </c>
       <c r="H4" t="n">
-        <v>30.47290791452693</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="I4" t="n">
-        <v>30.47290791452691</v>
+        <v>30.47290791452695</v>
       </c>
       <c r="J4" t="n">
-        <v>30.47290791452692</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="K4" t="n">
-        <v>30.47290791452691</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="L4" t="n">
-        <v>30.47290791452691</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="M4" t="n">
-        <v>30.47290791452691</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="N4" t="n">
         <v>30.47290791452693</v>
       </c>
       <c r="O4" t="n">
-        <v>30.47290791452693</v>
+        <v>30.47290791452694</v>
       </c>
       <c r="P4" t="n">
-        <v>30.47290791452692</v>
+        <v>30.47290791452694</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>30.18577824730922</v>
+        <v>30.18577824730917</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.913875135298539</v>
+        <v>5.913875135298554</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>23.86249467691518</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.610413237611748</v>
+        <v>6.610413237611784</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.86249467691518</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.610413237611748</v>
+        <v>6.610413237611787</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.86249467691518</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.610413237611748</v>
+        <v>6.610413237611784</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,13 +31047,13 @@
         <v>2.183155032889201</v>
       </c>
       <c r="I2" t="n">
-        <v>8.218340964770999</v>
+        <v>8.218340964770997</v>
       </c>
       <c r="J2" t="n">
         <v>18.09276743294812</v>
       </c>
       <c r="K2" t="n">
-        <v>27.11636831586767</v>
+        <v>27.11636831586768</v>
       </c>
       <c r="L2" t="n">
         <v>33.64025268914076</v>
@@ -31071,7 +31071,7 @@
         <v>30.65450239699825</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.02025466206896</v>
+        <v>23.02025466206897</v>
       </c>
       <c r="R2" t="n">
         <v>13.39071034636654</v>
@@ -31080,7 +31080,7 @@
         <v>4.857673166064953</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9331635451211989</v>
+        <v>0.933163545121199</v>
       </c>
       <c r="U2" t="n">
         <v>0.01705381692968495</v>
@@ -31123,10 +31123,10 @@
         <v>0.1140574560338541</v>
       </c>
       <c r="H3" t="n">
-        <v>1.101554904326959</v>
+        <v>1.10155490432696</v>
       </c>
       <c r="I3" t="n">
-        <v>3.926978201165591</v>
+        <v>3.926978201165592</v>
       </c>
       <c r="J3" t="n">
         <v>10.77592833519847</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09562193970051328</v>
+        <v>0.09562193970051329</v>
       </c>
       <c r="H4" t="n">
         <v>0.8501659729736551</v>
       </c>
       <c r="I4" t="n">
-        <v>2.875612513902709</v>
+        <v>2.87561251390271</v>
       </c>
       <c r="J4" t="n">
         <v>6.760471136826289</v>
@@ -31521,13 +31521,13 @@
         <v>2.183155032889201</v>
       </c>
       <c r="I8" t="n">
-        <v>8.218340964770997</v>
+        <v>8.218340964770999</v>
       </c>
       <c r="J8" t="n">
         <v>18.09276743294812</v>
       </c>
       <c r="K8" t="n">
-        <v>27.11636831586768</v>
+        <v>27.11636831586767</v>
       </c>
       <c r="L8" t="n">
         <v>33.64025268914076</v>
@@ -31545,7 +31545,7 @@
         <v>30.65450239699825</v>
       </c>
       <c r="Q8" t="n">
-        <v>23.02025466206897</v>
+        <v>23.02025466206896</v>
       </c>
       <c r="R8" t="n">
         <v>13.39071034636654</v>
@@ -31554,7 +31554,7 @@
         <v>4.857673166064953</v>
       </c>
       <c r="T8" t="n">
-        <v>0.933163545121199</v>
+        <v>0.9331635451211989</v>
       </c>
       <c r="U8" t="n">
         <v>0.01705381692968495</v>
@@ -31597,10 +31597,10 @@
         <v>0.1140574560338541</v>
       </c>
       <c r="H9" t="n">
-        <v>1.10155490432696</v>
+        <v>1.101554904326959</v>
       </c>
       <c r="I9" t="n">
-        <v>3.926978201165592</v>
+        <v>3.926978201165591</v>
       </c>
       <c r="J9" t="n">
         <v>10.77592833519847</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09562193970051329</v>
+        <v>0.09562193970051328</v>
       </c>
       <c r="H10" t="n">
         <v>0.8501659729736551</v>
       </c>
       <c r="I10" t="n">
-        <v>2.87561251390271</v>
+        <v>2.875612513902709</v>
       </c>
       <c r="J10" t="n">
         <v>6.760471136826289</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3345225739218024</v>
+        <v>0.3345225739218022</v>
       </c>
       <c r="H11" t="n">
-        <v>3.425929310176659</v>
+        <v>3.425929310176657</v>
       </c>
       <c r="I11" t="n">
-        <v>12.8966815311203</v>
+        <v>12.89668153112029</v>
       </c>
       <c r="J11" t="n">
-        <v>28.3921853083956</v>
+        <v>28.39218530839558</v>
       </c>
       <c r="K11" t="n">
-        <v>42.5525258625055</v>
+        <v>42.55252586250548</v>
       </c>
       <c r="L11" t="n">
-        <v>52.79017108416488</v>
+        <v>52.79017108416484</v>
       </c>
       <c r="M11" t="n">
-        <v>58.73923690814673</v>
+        <v>58.73923690814669</v>
       </c>
       <c r="N11" t="n">
-        <v>59.68969917130205</v>
+        <v>59.68969917130201</v>
       </c>
       <c r="O11" t="n">
-        <v>56.36329032686713</v>
+        <v>56.36329032686709</v>
       </c>
       <c r="P11" t="n">
-        <v>48.10476428317262</v>
+        <v>48.10476428317259</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459806</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>21.01345363411544</v>
+        <v>21.01345363411543</v>
       </c>
       <c r="S11" t="n">
-        <v>7.622933153243079</v>
+        <v>7.622933153243075</v>
       </c>
       <c r="T11" t="n">
-        <v>1.464372567342691</v>
+        <v>1.46437256734269</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02676180591374419</v>
+        <v>0.02676180591374417</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1789853564148589</v>
+        <v>0.1789853564148587</v>
       </c>
       <c r="H12" t="n">
-        <v>1.728621731690874</v>
+        <v>1.728621731690873</v>
       </c>
       <c r="I12" t="n">
-        <v>6.162434420423869</v>
+        <v>6.162434420423865</v>
       </c>
       <c r="J12" t="n">
-        <v>16.91019106373892</v>
+        <v>16.91019106373891</v>
       </c>
       <c r="K12" t="n">
-        <v>28.90220994353447</v>
+        <v>28.90220994353445</v>
       </c>
       <c r="L12" t="n">
-        <v>38.86258802332276</v>
+        <v>38.86258802332273</v>
       </c>
       <c r="M12" t="n">
-        <v>45.35080719336138</v>
+        <v>45.35080719336135</v>
       </c>
       <c r="N12" t="n">
-        <v>45.20552289045685</v>
+        <v>45.20552289045678</v>
       </c>
       <c r="O12" t="n">
-        <v>42.58516942735459</v>
+        <v>42.58516942735456</v>
       </c>
       <c r="P12" t="n">
-        <v>27.87640023104685</v>
+        <v>27.87640023104675</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>11.11279256758221</v>
+        <v>11.1127925675822</v>
       </c>
       <c r="S12" t="n">
-        <v>3.324574493056696</v>
+        <v>3.324574493056694</v>
       </c>
       <c r="T12" t="n">
-        <v>0.7214365901107685</v>
+        <v>0.721436590110768</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0117753523957144</v>
+        <v>0.01177535239571439</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>0.1500553103104151</v>
       </c>
       <c r="H13" t="n">
-        <v>1.334128122578056</v>
+        <v>1.334128122578055</v>
       </c>
       <c r="I13" t="n">
-        <v>4.512572422789577</v>
+        <v>4.512572422789574</v>
       </c>
       <c r="J13" t="n">
-        <v>10.60891043894635</v>
+        <v>10.60891043894634</v>
       </c>
       <c r="K13" t="n">
-        <v>17.43369877970096</v>
+        <v>17.43369877970094</v>
       </c>
       <c r="L13" t="n">
-        <v>22.30913222560482</v>
+        <v>22.3091322256048</v>
       </c>
       <c r="M13" t="n">
-        <v>23.52185196074989</v>
+        <v>23.52185196074987</v>
       </c>
       <c r="N13" t="n">
-        <v>22.96255489504745</v>
+        <v>22.96255489504744</v>
       </c>
       <c r="O13" t="n">
-        <v>21.20963604278487</v>
+        <v>21.20963604278485</v>
       </c>
       <c r="P13" t="n">
-        <v>18.14850771245239</v>
+        <v>18.14850771245237</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.56508602972031</v>
+        <v>12.5650860297203</v>
       </c>
       <c r="R13" t="n">
-        <v>6.74703240723012</v>
+        <v>6.747032407230114</v>
       </c>
       <c r="S13" t="n">
-        <v>2.615054816955143</v>
+        <v>2.615054816955141</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6411454167808646</v>
+        <v>0.6411454167808641</v>
       </c>
       <c r="U13" t="n">
-        <v>0.008184835107840835</v>
+        <v>0.00818483510784083</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3345225739218024</v>
+        <v>0.3345225739218023</v>
       </c>
       <c r="H14" t="n">
         <v>3.425929310176659</v>
@@ -32004,19 +32004,19 @@
         <v>42.5525258625055</v>
       </c>
       <c r="L14" t="n">
-        <v>52.79017108416488</v>
+        <v>52.79017108416487</v>
       </c>
       <c r="M14" t="n">
-        <v>58.73923690814673</v>
+        <v>58.73923690814672</v>
       </c>
       <c r="N14" t="n">
         <v>59.68969917130205</v>
       </c>
       <c r="O14" t="n">
-        <v>56.36329032686713</v>
+        <v>56.36329032686712</v>
       </c>
       <c r="P14" t="n">
-        <v>48.10476428317262</v>
+        <v>48.10476428317261</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459806</v>
@@ -32025,13 +32025,13 @@
         <v>21.01345363411544</v>
       </c>
       <c r="S14" t="n">
-        <v>7.622933153243079</v>
+        <v>7.622933153243078</v>
       </c>
       <c r="T14" t="n">
-        <v>1.464372567342691</v>
+        <v>1.46437256734269</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02676180591374419</v>
+        <v>0.02676180591374418</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1789853564148589</v>
+        <v>0.1789853564148588</v>
       </c>
       <c r="H15" t="n">
         <v>1.728621731690874</v>
       </c>
       <c r="I15" t="n">
-        <v>6.162434420423869</v>
+        <v>6.162434420423867</v>
       </c>
       <c r="J15" t="n">
         <v>16.91019106373892</v>
       </c>
       <c r="K15" t="n">
-        <v>28.90220994353447</v>
+        <v>28.90220994353446</v>
       </c>
       <c r="L15" t="n">
-        <v>38.86258802332276</v>
+        <v>38.86258802332275</v>
       </c>
       <c r="M15" t="n">
-        <v>45.35080719336138</v>
+        <v>45.35080719336137</v>
       </c>
       <c r="N15" t="n">
-        <v>38.80328482851648</v>
+        <v>45.20552289045681</v>
       </c>
       <c r="O15" t="n">
         <v>42.58516942735459</v>
       </c>
       <c r="P15" t="n">
-        <v>34.17835284030757</v>
+        <v>27.87640023104675</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.84732374165812</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>11.11279256758221</v>
+        <v>11.1127925675822</v>
       </c>
       <c r="S15" t="n">
         <v>3.324574493056696</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7214365901107685</v>
+        <v>0.7214365901107683</v>
       </c>
       <c r="U15" t="n">
         <v>0.0117753523957144</v>
@@ -32150,19 +32150,19 @@
         <v>0.1500553103104151</v>
       </c>
       <c r="H16" t="n">
-        <v>1.334128122578056</v>
+        <v>1.334128122578055</v>
       </c>
       <c r="I16" t="n">
-        <v>4.512572422789577</v>
+        <v>4.512572422789576</v>
       </c>
       <c r="J16" t="n">
         <v>10.60891043894635</v>
       </c>
       <c r="K16" t="n">
-        <v>17.43369877970096</v>
+        <v>17.43369877970095</v>
       </c>
       <c r="L16" t="n">
-        <v>22.30913222560482</v>
+        <v>22.30913222560481</v>
       </c>
       <c r="M16" t="n">
         <v>23.52185196074989</v>
@@ -32174,19 +32174,19 @@
         <v>21.20963604278487</v>
       </c>
       <c r="P16" t="n">
-        <v>18.14850771245239</v>
+        <v>18.14850771245238</v>
       </c>
       <c r="Q16" t="n">
         <v>12.56508602972031</v>
       </c>
       <c r="R16" t="n">
-        <v>6.74703240723012</v>
+        <v>6.747032407230118</v>
       </c>
       <c r="S16" t="n">
-        <v>2.615054816955143</v>
+        <v>2.615054816955142</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6411454167808646</v>
+        <v>0.6411454167808645</v>
       </c>
       <c r="U16" t="n">
         <v>0.008184835107840835</v>
@@ -32326,7 +32326,7 @@
         <v>48.57386914209908</v>
       </c>
       <c r="N18" t="n">
-        <v>49.85947492223178</v>
+        <v>49.85947492223185</v>
       </c>
       <c r="O18" t="n">
         <v>45.61167871475591</v>
@@ -32335,7 +32335,7 @@
         <v>36.60739336521915</v>
       </c>
       <c r="Q18" t="n">
-        <v>24.4710730052216</v>
+        <v>24.47107300522154</v>
       </c>
       <c r="R18" t="n">
         <v>11.90257385451887</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3582969463250125</v>
+        <v>0.3582969463250126</v>
       </c>
       <c r="H20" t="n">
-        <v>3.669408601551035</v>
+        <v>3.669408601551036</v>
       </c>
       <c r="I20" t="n">
         <v>13.81324302319506</v>
@@ -32478,16 +32478,16 @@
         <v>45.57671518609035</v>
       </c>
       <c r="L20" t="n">
-        <v>56.54194535718446</v>
+        <v>56.54194535718447</v>
       </c>
       <c r="M20" t="n">
-        <v>62.9138086763919</v>
+        <v>62.91380867639191</v>
       </c>
       <c r="N20" t="n">
-        <v>63.93181987513785</v>
+        <v>63.93181987513786</v>
       </c>
       <c r="O20" t="n">
-        <v>60.3690046151185</v>
+        <v>60.36900461511851</v>
       </c>
       <c r="P20" t="n">
         <v>51.52354875271975</v>
@@ -32499,10 +32499,10 @@
         <v>22.50687055458859</v>
       </c>
       <c r="S20" t="n">
-        <v>8.16469166438123</v>
+        <v>8.164691664381232</v>
       </c>
       <c r="T20" t="n">
-        <v>1.568444882537743</v>
+        <v>1.568444882537744</v>
       </c>
       <c r="U20" t="n">
         <v>0.028663755706001</v>
@@ -32548,40 +32548,40 @@
         <v>1.851474118935472</v>
       </c>
       <c r="I21" t="n">
-        <v>6.600395928085128</v>
+        <v>6.600395928085129</v>
       </c>
       <c r="J21" t="n">
         <v>18.11199091552634</v>
       </c>
       <c r="K21" t="n">
-        <v>30.9562773101032</v>
+        <v>30.95627731010321</v>
       </c>
       <c r="L21" t="n">
-        <v>41.62453508533175</v>
+        <v>41.62453508533176</v>
       </c>
       <c r="M21" t="n">
-        <v>48.57386914209907</v>
+        <v>48.57386914209908</v>
       </c>
       <c r="N21" t="n">
-        <v>49.85947492223184</v>
+        <v>49.85947492223185</v>
       </c>
       <c r="O21" t="n">
-        <v>45.6116787147559</v>
+        <v>45.61167871475591</v>
       </c>
       <c r="P21" t="n">
         <v>36.60739336521915</v>
       </c>
       <c r="Q21" t="n">
-        <v>24.4710730052216</v>
+        <v>24.47107300522156</v>
       </c>
       <c r="R21" t="n">
-        <v>11.90257385451886</v>
+        <v>11.90257385451887</v>
       </c>
       <c r="S21" t="n">
         <v>3.560850542094331</v>
       </c>
       <c r="T21" t="n">
-        <v>0.7727087717083094</v>
+        <v>0.7727087717083095</v>
       </c>
       <c r="U21" t="n">
         <v>0.01261222151863401</v>
@@ -32627,7 +32627,7 @@
         <v>1.428944022288252</v>
       </c>
       <c r="I22" t="n">
-        <v>4.833278962913635</v>
+        <v>4.833278962913636</v>
       </c>
       <c r="J22" t="n">
         <v>11.36288104431056</v>
@@ -32645,7 +32645,7 @@
         <v>24.59449358607172</v>
       </c>
       <c r="O22" t="n">
-        <v>22.71699556087702</v>
+        <v>22.71699556087703</v>
       </c>
       <c r="P22" t="n">
         <v>19.43831418458372</v>
@@ -32654,16 +32654,16 @@
         <v>13.45808117515039</v>
       </c>
       <c r="R22" t="n">
-        <v>7.226541037052849</v>
+        <v>7.22654103705285</v>
       </c>
       <c r="S22" t="n">
         <v>2.800905614239853</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6867113399544761</v>
+        <v>0.6867113399544762</v>
       </c>
       <c r="U22" t="n">
-        <v>0.008766527744099707</v>
+        <v>0.008766527744099709</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3582969463250125</v>
+        <v>0.3582969463250126</v>
       </c>
       <c r="H23" t="n">
-        <v>3.669408601551035</v>
+        <v>3.669408601551036</v>
       </c>
       <c r="I23" t="n">
         <v>13.81324302319506</v>
@@ -32715,16 +32715,16 @@
         <v>45.57671518609035</v>
       </c>
       <c r="L23" t="n">
-        <v>56.54194535718446</v>
+        <v>56.54194535718447</v>
       </c>
       <c r="M23" t="n">
-        <v>62.9138086763919</v>
+        <v>62.91380867639191</v>
       </c>
       <c r="N23" t="n">
-        <v>63.93181987513785</v>
+        <v>63.93181987513786</v>
       </c>
       <c r="O23" t="n">
-        <v>60.3690046151185</v>
+        <v>60.36900461511851</v>
       </c>
       <c r="P23" t="n">
         <v>51.52354875271975</v>
@@ -32736,10 +32736,10 @@
         <v>22.50687055458859</v>
       </c>
       <c r="S23" t="n">
-        <v>8.16469166438123</v>
+        <v>8.164691664381232</v>
       </c>
       <c r="T23" t="n">
-        <v>1.568444882537743</v>
+        <v>1.568444882537744</v>
       </c>
       <c r="U23" t="n">
         <v>0.028663755706001</v>
@@ -32785,40 +32785,40 @@
         <v>1.851474118935472</v>
       </c>
       <c r="I24" t="n">
-        <v>6.600395928085128</v>
+        <v>6.600395928085129</v>
       </c>
       <c r="J24" t="n">
         <v>18.11199091552634</v>
       </c>
       <c r="K24" t="n">
-        <v>30.9562773101032</v>
+        <v>30.95627731010321</v>
       </c>
       <c r="L24" t="n">
-        <v>41.62453508533175</v>
+        <v>41.62453508533176</v>
       </c>
       <c r="M24" t="n">
-        <v>48.57386914209907</v>
+        <v>48.57386914209908</v>
       </c>
       <c r="N24" t="n">
-        <v>49.85947492223184</v>
+        <v>49.85947492223185</v>
       </c>
       <c r="O24" t="n">
-        <v>45.6116787147559</v>
+        <v>45.61167871475591</v>
       </c>
       <c r="P24" t="n">
         <v>36.60739336521915</v>
       </c>
       <c r="Q24" t="n">
-        <v>24.47107300522151</v>
+        <v>24.4710730052216</v>
       </c>
       <c r="R24" t="n">
-        <v>11.90257385451886</v>
+        <v>11.90257385451887</v>
       </c>
       <c r="S24" t="n">
         <v>3.560850542094331</v>
       </c>
       <c r="T24" t="n">
-        <v>0.7727087717083094</v>
+        <v>0.7727087717083095</v>
       </c>
       <c r="U24" t="n">
         <v>0.01261222151863401</v>
@@ -32864,7 +32864,7 @@
         <v>1.428944022288252</v>
       </c>
       <c r="I25" t="n">
-        <v>4.833278962913635</v>
+        <v>4.833278962913636</v>
       </c>
       <c r="J25" t="n">
         <v>11.36288104431056</v>
@@ -32882,7 +32882,7 @@
         <v>24.59449358607172</v>
       </c>
       <c r="O25" t="n">
-        <v>22.71699556087702</v>
+        <v>22.71699556087703</v>
       </c>
       <c r="P25" t="n">
         <v>19.43831418458372</v>
@@ -32891,16 +32891,16 @@
         <v>13.45808117515039</v>
       </c>
       <c r="R25" t="n">
-        <v>7.226541037052849</v>
+        <v>7.22654103705285</v>
       </c>
       <c r="S25" t="n">
         <v>2.800905614239853</v>
       </c>
       <c r="T25" t="n">
-        <v>0.6867113399544761</v>
+        <v>0.6867113399544762</v>
       </c>
       <c r="U25" t="n">
-        <v>0.008766527744099707</v>
+        <v>0.008766527744099709</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3582969463250125</v>
+        <v>0.3582969463250126</v>
       </c>
       <c r="H26" t="n">
-        <v>3.669408601551035</v>
+        <v>3.669408601551036</v>
       </c>
       <c r="I26" t="n">
         <v>13.81324302319506</v>
@@ -32952,16 +32952,16 @@
         <v>45.57671518609035</v>
       </c>
       <c r="L26" t="n">
-        <v>56.54194535718446</v>
+        <v>56.54194535718447</v>
       </c>
       <c r="M26" t="n">
-        <v>62.9138086763919</v>
+        <v>62.91380867639191</v>
       </c>
       <c r="N26" t="n">
-        <v>63.93181987513785</v>
+        <v>63.93181987513786</v>
       </c>
       <c r="O26" t="n">
-        <v>60.3690046151185</v>
+        <v>60.36900461511851</v>
       </c>
       <c r="P26" t="n">
         <v>51.52354875271975</v>
@@ -32973,10 +32973,10 @@
         <v>22.50687055458859</v>
       </c>
       <c r="S26" t="n">
-        <v>8.16469166438123</v>
+        <v>8.164691664381232</v>
       </c>
       <c r="T26" t="n">
-        <v>1.568444882537743</v>
+        <v>1.568444882537744</v>
       </c>
       <c r="U26" t="n">
         <v>0.028663755706001</v>
@@ -33022,25 +33022,25 @@
         <v>1.851474118935472</v>
       </c>
       <c r="I27" t="n">
-        <v>6.600395928085128</v>
+        <v>6.600395928085129</v>
       </c>
       <c r="J27" t="n">
         <v>18.11199091552634</v>
       </c>
       <c r="K27" t="n">
-        <v>30.9562773101032</v>
+        <v>30.95627731010321</v>
       </c>
       <c r="L27" t="n">
-        <v>41.62453508533175</v>
+        <v>41.62453508533176</v>
       </c>
       <c r="M27" t="n">
-        <v>48.57386914209907</v>
+        <v>48.57386914209908</v>
       </c>
       <c r="N27" t="n">
-        <v>49.85947492223184</v>
+        <v>49.85947492223185</v>
       </c>
       <c r="O27" t="n">
-        <v>45.61167871475585</v>
+        <v>45.61167871475591</v>
       </c>
       <c r="P27" t="n">
         <v>36.60739336521915</v>
@@ -33049,13 +33049,13 @@
         <v>24.4710730052216</v>
       </c>
       <c r="R27" t="n">
-        <v>11.90257385451886</v>
+        <v>11.90257385451887</v>
       </c>
       <c r="S27" t="n">
         <v>3.560850542094331</v>
       </c>
       <c r="T27" t="n">
-        <v>0.7727087717083094</v>
+        <v>0.7727087717083095</v>
       </c>
       <c r="U27" t="n">
         <v>0.01261222151863401</v>
@@ -33101,7 +33101,7 @@
         <v>1.428944022288252</v>
       </c>
       <c r="I28" t="n">
-        <v>4.833278962913635</v>
+        <v>4.833278962913636</v>
       </c>
       <c r="J28" t="n">
         <v>11.36288104431056</v>
@@ -33119,7 +33119,7 @@
         <v>24.59449358607172</v>
       </c>
       <c r="O28" t="n">
-        <v>22.71699556087702</v>
+        <v>22.71699556087703</v>
       </c>
       <c r="P28" t="n">
         <v>19.43831418458372</v>
@@ -33128,16 +33128,16 @@
         <v>13.45808117515039</v>
       </c>
       <c r="R28" t="n">
-        <v>7.226541037052849</v>
+        <v>7.22654103705285</v>
       </c>
       <c r="S28" t="n">
         <v>2.800905614239853</v>
       </c>
       <c r="T28" t="n">
-        <v>0.6867113399544761</v>
+        <v>0.6867113399544762</v>
       </c>
       <c r="U28" t="n">
-        <v>0.008766527744099707</v>
+        <v>0.008766527744099709</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33268,7 +33268,7 @@
         <v>30.9562773101032</v>
       </c>
       <c r="L30" t="n">
-        <v>41.62453508533163</v>
+        <v>41.62453508533175</v>
       </c>
       <c r="M30" t="n">
         <v>48.57386914209907</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3582969463250125</v>
+        <v>0.3582969463250126</v>
       </c>
       <c r="H32" t="n">
-        <v>3.669408601551035</v>
+        <v>3.669408601551036</v>
       </c>
       <c r="I32" t="n">
         <v>13.81324302319506</v>
@@ -33426,16 +33426,16 @@
         <v>45.57671518609035</v>
       </c>
       <c r="L32" t="n">
-        <v>56.54194535718446</v>
+        <v>56.54194535718447</v>
       </c>
       <c r="M32" t="n">
-        <v>62.9138086763919</v>
+        <v>62.91380867639191</v>
       </c>
       <c r="N32" t="n">
-        <v>63.93181987513785</v>
+        <v>63.93181987513786</v>
       </c>
       <c r="O32" t="n">
-        <v>60.3690046151185</v>
+        <v>60.36900461511851</v>
       </c>
       <c r="P32" t="n">
         <v>51.52354875271975</v>
@@ -33447,10 +33447,10 @@
         <v>22.50687055458859</v>
       </c>
       <c r="S32" t="n">
-        <v>8.16469166438123</v>
+        <v>8.164691664381232</v>
       </c>
       <c r="T32" t="n">
-        <v>1.568444882537743</v>
+        <v>1.568444882537744</v>
       </c>
       <c r="U32" t="n">
         <v>0.028663755706001</v>
@@ -33496,40 +33496,40 @@
         <v>1.851474118935472</v>
       </c>
       <c r="I33" t="n">
-        <v>6.600395928085128</v>
+        <v>6.600395928085129</v>
       </c>
       <c r="J33" t="n">
         <v>18.11199091552634</v>
       </c>
       <c r="K33" t="n">
-        <v>30.9562773101032</v>
+        <v>30.95627731010321</v>
       </c>
       <c r="L33" t="n">
-        <v>41.62453508533175</v>
+        <v>41.62453508533176</v>
       </c>
       <c r="M33" t="n">
-        <v>48.57386914209907</v>
+        <v>48.57386914209908</v>
       </c>
       <c r="N33" t="n">
-        <v>49.85947492223184</v>
+        <v>49.85947492223185</v>
       </c>
       <c r="O33" t="n">
-        <v>45.6116787147559</v>
+        <v>45.61167871475591</v>
       </c>
       <c r="P33" t="n">
         <v>36.60739336521915</v>
       </c>
       <c r="Q33" t="n">
-        <v>24.4710730052216</v>
+        <v>24.47107300522156</v>
       </c>
       <c r="R33" t="n">
-        <v>11.90257385451886</v>
+        <v>11.90257385451887</v>
       </c>
       <c r="S33" t="n">
         <v>3.560850542094331</v>
       </c>
       <c r="T33" t="n">
-        <v>0.7727087717083094</v>
+        <v>0.7727087717083095</v>
       </c>
       <c r="U33" t="n">
         <v>0.01261222151863401</v>
@@ -33575,7 +33575,7 @@
         <v>1.428944022288252</v>
       </c>
       <c r="I34" t="n">
-        <v>4.833278962913635</v>
+        <v>4.833278962913636</v>
       </c>
       <c r="J34" t="n">
         <v>11.36288104431056</v>
@@ -33593,7 +33593,7 @@
         <v>24.59449358607172</v>
       </c>
       <c r="O34" t="n">
-        <v>22.71699556087702</v>
+        <v>22.71699556087703</v>
       </c>
       <c r="P34" t="n">
         <v>19.43831418458372</v>
@@ -33602,16 +33602,16 @@
         <v>13.45808117515039</v>
       </c>
       <c r="R34" t="n">
-        <v>7.226541037052849</v>
+        <v>7.22654103705285</v>
       </c>
       <c r="S34" t="n">
         <v>2.800905614239853</v>
       </c>
       <c r="T34" t="n">
-        <v>0.6867113399544761</v>
+        <v>0.6867113399544762</v>
       </c>
       <c r="U34" t="n">
-        <v>0.008766527744099707</v>
+        <v>0.008766527744099709</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3582969463250125</v>
+        <v>0.3582969463250126</v>
       </c>
       <c r="H35" t="n">
-        <v>3.669408601551035</v>
+        <v>3.669408601551036</v>
       </c>
       <c r="I35" t="n">
         <v>13.81324302319506</v>
@@ -33663,16 +33663,16 @@
         <v>45.57671518609035</v>
       </c>
       <c r="L35" t="n">
-        <v>56.54194535718446</v>
+        <v>56.54194535718447</v>
       </c>
       <c r="M35" t="n">
-        <v>62.9138086763919</v>
+        <v>62.91380867639191</v>
       </c>
       <c r="N35" t="n">
-        <v>63.93181987513785</v>
+        <v>63.93181987513786</v>
       </c>
       <c r="O35" t="n">
-        <v>60.3690046151185</v>
+        <v>60.36900461511851</v>
       </c>
       <c r="P35" t="n">
         <v>51.52354875271975</v>
@@ -33684,10 +33684,10 @@
         <v>22.50687055458859</v>
       </c>
       <c r="S35" t="n">
-        <v>8.16469166438123</v>
+        <v>8.164691664381232</v>
       </c>
       <c r="T35" t="n">
-        <v>1.568444882537743</v>
+        <v>1.568444882537744</v>
       </c>
       <c r="U35" t="n">
         <v>0.028663755706001</v>
@@ -33733,40 +33733,40 @@
         <v>1.851474118935472</v>
       </c>
       <c r="I36" t="n">
-        <v>6.600395928085128</v>
+        <v>6.600395928085129</v>
       </c>
       <c r="J36" t="n">
         <v>18.11199091552634</v>
       </c>
       <c r="K36" t="n">
-        <v>30.9562773101032</v>
+        <v>30.95627731010321</v>
       </c>
       <c r="L36" t="n">
-        <v>41.62453508533175</v>
+        <v>41.62453508533176</v>
       </c>
       <c r="M36" t="n">
-        <v>48.57386914209907</v>
+        <v>48.57386914209908</v>
       </c>
       <c r="N36" t="n">
-        <v>49.85947492223184</v>
+        <v>49.85947492223185</v>
       </c>
       <c r="O36" t="n">
-        <v>45.6116787147559</v>
+        <v>45.61167871475591</v>
       </c>
       <c r="P36" t="n">
         <v>36.60739336521915</v>
       </c>
       <c r="Q36" t="n">
-        <v>24.4710730052216</v>
+        <v>24.47107300522156</v>
       </c>
       <c r="R36" t="n">
-        <v>11.90257385451886</v>
+        <v>11.90257385451887</v>
       </c>
       <c r="S36" t="n">
         <v>3.560850542094331</v>
       </c>
       <c r="T36" t="n">
-        <v>0.7727087717083094</v>
+        <v>0.7727087717083095</v>
       </c>
       <c r="U36" t="n">
         <v>0.01261222151863401</v>
@@ -33812,7 +33812,7 @@
         <v>1.428944022288252</v>
       </c>
       <c r="I37" t="n">
-        <v>4.833278962913635</v>
+        <v>4.833278962913636</v>
       </c>
       <c r="J37" t="n">
         <v>11.36288104431056</v>
@@ -33830,7 +33830,7 @@
         <v>24.59449358607172</v>
       </c>
       <c r="O37" t="n">
-        <v>22.71699556087702</v>
+        <v>22.71699556087703</v>
       </c>
       <c r="P37" t="n">
         <v>19.43831418458372</v>
@@ -33839,16 +33839,16 @@
         <v>13.45808117515039</v>
       </c>
       <c r="R37" t="n">
-        <v>7.226541037052849</v>
+        <v>7.22654103705285</v>
       </c>
       <c r="S37" t="n">
         <v>2.800905614239853</v>
       </c>
       <c r="T37" t="n">
-        <v>0.6867113399544761</v>
+        <v>0.6867113399544762</v>
       </c>
       <c r="U37" t="n">
-        <v>0.008766527744099707</v>
+        <v>0.008766527744099709</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3582969463250125</v>
+        <v>0.3582969463250126</v>
       </c>
       <c r="H38" t="n">
-        <v>3.669408601551035</v>
+        <v>3.669408601551036</v>
       </c>
       <c r="I38" t="n">
         <v>13.81324302319506</v>
@@ -33900,16 +33900,16 @@
         <v>45.57671518609035</v>
       </c>
       <c r="L38" t="n">
-        <v>56.54194535718446</v>
+        <v>56.54194535718447</v>
       </c>
       <c r="M38" t="n">
-        <v>62.9138086763919</v>
+        <v>62.91380867639191</v>
       </c>
       <c r="N38" t="n">
-        <v>63.93181987513785</v>
+        <v>63.93181987513786</v>
       </c>
       <c r="O38" t="n">
-        <v>60.3690046151185</v>
+        <v>60.36900461511851</v>
       </c>
       <c r="P38" t="n">
         <v>51.52354875271975</v>
@@ -33921,10 +33921,10 @@
         <v>22.50687055458859</v>
       </c>
       <c r="S38" t="n">
-        <v>8.16469166438123</v>
+        <v>8.164691664381232</v>
       </c>
       <c r="T38" t="n">
-        <v>1.568444882537743</v>
+        <v>1.568444882537744</v>
       </c>
       <c r="U38" t="n">
         <v>0.028663755706001</v>
@@ -33970,25 +33970,25 @@
         <v>1.851474118935472</v>
       </c>
       <c r="I39" t="n">
-        <v>6.600395928085128</v>
+        <v>6.600395928085129</v>
       </c>
       <c r="J39" t="n">
         <v>18.11199091552634</v>
       </c>
       <c r="K39" t="n">
-        <v>30.9562773101032</v>
+        <v>30.95627731010315</v>
       </c>
       <c r="L39" t="n">
-        <v>41.62453508533175</v>
+        <v>41.62453508533176</v>
       </c>
       <c r="M39" t="n">
-        <v>48.57386914209907</v>
+        <v>48.57386914209908</v>
       </c>
       <c r="N39" t="n">
-        <v>49.85947492223184</v>
+        <v>49.85947492223185</v>
       </c>
       <c r="O39" t="n">
-        <v>45.6116787147559</v>
+        <v>45.61167871475591</v>
       </c>
       <c r="P39" t="n">
         <v>36.60739336521915</v>
@@ -33997,13 +33997,13 @@
         <v>24.4710730052216</v>
       </c>
       <c r="R39" t="n">
-        <v>11.90257385451886</v>
+        <v>11.90257385451887</v>
       </c>
       <c r="S39" t="n">
         <v>3.560850542094331</v>
       </c>
       <c r="T39" t="n">
-        <v>0.7727087717083094</v>
+        <v>0.7727087717083095</v>
       </c>
       <c r="U39" t="n">
         <v>0.01261222151863401</v>
@@ -34049,7 +34049,7 @@
         <v>1.428944022288252</v>
       </c>
       <c r="I40" t="n">
-        <v>4.833278962913635</v>
+        <v>4.833278962913636</v>
       </c>
       <c r="J40" t="n">
         <v>11.36288104431056</v>
@@ -34067,7 +34067,7 @@
         <v>24.59449358607172</v>
       </c>
       <c r="O40" t="n">
-        <v>22.71699556087702</v>
+        <v>22.71699556087703</v>
       </c>
       <c r="P40" t="n">
         <v>19.43831418458372</v>
@@ -34076,16 +34076,16 @@
         <v>13.45808117515039</v>
       </c>
       <c r="R40" t="n">
-        <v>7.226541037052849</v>
+        <v>7.22654103705285</v>
       </c>
       <c r="S40" t="n">
         <v>2.800905614239853</v>
       </c>
       <c r="T40" t="n">
-        <v>0.6867113399544761</v>
+        <v>0.6867113399544762</v>
       </c>
       <c r="U40" t="n">
-        <v>0.008766527744099707</v>
+        <v>0.008766527744099709</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3582969463250125</v>
+        <v>0.3582969463250126</v>
       </c>
       <c r="H41" t="n">
-        <v>3.669408601551035</v>
+        <v>3.669408601551036</v>
       </c>
       <c r="I41" t="n">
         <v>13.81324302319506</v>
@@ -34137,16 +34137,16 @@
         <v>45.57671518609035</v>
       </c>
       <c r="L41" t="n">
-        <v>56.54194535718446</v>
+        <v>56.54194535718447</v>
       </c>
       <c r="M41" t="n">
-        <v>62.9138086763919</v>
+        <v>62.91380867639191</v>
       </c>
       <c r="N41" t="n">
-        <v>63.93181987513785</v>
+        <v>63.93181987513786</v>
       </c>
       <c r="O41" t="n">
-        <v>60.3690046151185</v>
+        <v>60.36900461511851</v>
       </c>
       <c r="P41" t="n">
         <v>51.52354875271975</v>
@@ -34158,10 +34158,10 @@
         <v>22.50687055458859</v>
       </c>
       <c r="S41" t="n">
-        <v>8.16469166438123</v>
+        <v>8.164691664381232</v>
       </c>
       <c r="T41" t="n">
-        <v>1.568444882537743</v>
+        <v>1.568444882537744</v>
       </c>
       <c r="U41" t="n">
         <v>0.028663755706001</v>
@@ -34207,25 +34207,25 @@
         <v>1.851474118935472</v>
       </c>
       <c r="I42" t="n">
-        <v>6.600395928085128</v>
+        <v>6.600395928085129</v>
       </c>
       <c r="J42" t="n">
         <v>18.11199091552634</v>
       </c>
       <c r="K42" t="n">
-        <v>30.9562773101032</v>
+        <v>30.95627731010321</v>
       </c>
       <c r="L42" t="n">
-        <v>41.62453508533175</v>
+        <v>41.62453508533176</v>
       </c>
       <c r="M42" t="n">
-        <v>48.57386914209907</v>
+        <v>48.57386914209908</v>
       </c>
       <c r="N42" t="n">
-        <v>49.85947492223184</v>
+        <v>49.85947492223185</v>
       </c>
       <c r="O42" t="n">
-        <v>45.6116787147559</v>
+        <v>45.61167871475591</v>
       </c>
       <c r="P42" t="n">
         <v>36.60739336521915</v>
@@ -34234,13 +34234,13 @@
         <v>24.4710730052216</v>
       </c>
       <c r="R42" t="n">
-        <v>11.90257385451886</v>
+        <v>11.90257385451887</v>
       </c>
       <c r="S42" t="n">
         <v>3.560850542094331</v>
       </c>
       <c r="T42" t="n">
-        <v>0.7727087717083094</v>
+        <v>0.7727087717083095</v>
       </c>
       <c r="U42" t="n">
         <v>0.01261222151863401</v>
@@ -34286,7 +34286,7 @@
         <v>1.428944022288252</v>
       </c>
       <c r="I43" t="n">
-        <v>4.833278962913635</v>
+        <v>4.833278962913636</v>
       </c>
       <c r="J43" t="n">
         <v>11.36288104431056</v>
@@ -34304,7 +34304,7 @@
         <v>24.59449358607172</v>
       </c>
       <c r="O43" t="n">
-        <v>22.71699556087702</v>
+        <v>22.71699556087703</v>
       </c>
       <c r="P43" t="n">
         <v>19.43831418458372</v>
@@ -34313,16 +34313,16 @@
         <v>13.45808117515039</v>
       </c>
       <c r="R43" t="n">
-        <v>7.226541037052849</v>
+        <v>7.22654103705285</v>
       </c>
       <c r="S43" t="n">
         <v>2.800905614239853</v>
       </c>
       <c r="T43" t="n">
-        <v>0.6867113399544761</v>
+        <v>0.6867113399544762</v>
       </c>
       <c r="U43" t="n">
-        <v>0.008766527744099707</v>
+        <v>0.008766527744099709</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3582969463250125</v>
+        <v>0.3582969463250126</v>
       </c>
       <c r="H44" t="n">
-        <v>3.669408601551035</v>
+        <v>3.669408601551036</v>
       </c>
       <c r="I44" t="n">
         <v>13.81324302319506</v>
@@ -34374,16 +34374,16 @@
         <v>45.57671518609035</v>
       </c>
       <c r="L44" t="n">
-        <v>56.54194535718446</v>
+        <v>56.54194535718447</v>
       </c>
       <c r="M44" t="n">
-        <v>62.9138086763919</v>
+        <v>62.91380867639191</v>
       </c>
       <c r="N44" t="n">
-        <v>63.93181987513785</v>
+        <v>63.93181987513786</v>
       </c>
       <c r="O44" t="n">
-        <v>60.3690046151185</v>
+        <v>60.36900461511851</v>
       </c>
       <c r="P44" t="n">
         <v>51.52354875271975</v>
@@ -34395,10 +34395,10 @@
         <v>22.50687055458859</v>
       </c>
       <c r="S44" t="n">
-        <v>8.16469166438123</v>
+        <v>8.164691664381232</v>
       </c>
       <c r="T44" t="n">
-        <v>1.568444882537743</v>
+        <v>1.568444882537744</v>
       </c>
       <c r="U44" t="n">
         <v>0.028663755706001</v>
@@ -34444,25 +34444,25 @@
         <v>1.851474118935472</v>
       </c>
       <c r="I45" t="n">
-        <v>6.600395928085128</v>
+        <v>6.600395928085129</v>
       </c>
       <c r="J45" t="n">
         <v>18.11199091552634</v>
       </c>
       <c r="K45" t="n">
-        <v>30.9562773101032</v>
+        <v>30.95627731010321</v>
       </c>
       <c r="L45" t="n">
-        <v>41.62453508533175</v>
+        <v>41.62453508533176</v>
       </c>
       <c r="M45" t="n">
-        <v>48.57386914209907</v>
+        <v>48.57386914209908</v>
       </c>
       <c r="N45" t="n">
-        <v>49.85947492223184</v>
+        <v>49.85947492223185</v>
       </c>
       <c r="O45" t="n">
-        <v>45.6116787147559</v>
+        <v>45.61167871475591</v>
       </c>
       <c r="P45" t="n">
         <v>36.60739336521915</v>
@@ -34471,13 +34471,13 @@
         <v>24.4710730052216</v>
       </c>
       <c r="R45" t="n">
-        <v>11.90257385451886</v>
+        <v>11.90257385451887</v>
       </c>
       <c r="S45" t="n">
         <v>3.560850542094331</v>
       </c>
       <c r="T45" t="n">
-        <v>0.7727087717083094</v>
+        <v>0.7727087717083095</v>
       </c>
       <c r="U45" t="n">
         <v>0.01261222151863401</v>
@@ -34523,7 +34523,7 @@
         <v>1.428944022288252</v>
       </c>
       <c r="I46" t="n">
-        <v>4.833278962913635</v>
+        <v>4.833278962913636</v>
       </c>
       <c r="J46" t="n">
         <v>11.36288104431056</v>
@@ -34541,7 +34541,7 @@
         <v>24.59449358607172</v>
       </c>
       <c r="O46" t="n">
-        <v>22.71699556087702</v>
+        <v>22.71699556087703</v>
       </c>
       <c r="P46" t="n">
         <v>19.43831418458372</v>
@@ -34550,16 +34550,16 @@
         <v>13.45808117515039</v>
       </c>
       <c r="R46" t="n">
-        <v>7.226541037052849</v>
+        <v>7.22654103705285</v>
       </c>
       <c r="S46" t="n">
         <v>2.800905614239853</v>
       </c>
       <c r="T46" t="n">
-        <v>0.6867113399544761</v>
+        <v>0.6867113399544762</v>
       </c>
       <c r="U46" t="n">
-        <v>0.008766527744099707</v>
+        <v>0.008766527744099709</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>6.787925067696165</v>
+        <v>6.787925067696136</v>
       </c>
       <c r="L11" t="n">
-        <v>14.47812865154195</v>
+        <v>14.47812865154192</v>
       </c>
       <c r="M11" t="n">
-        <v>21.30797400871491</v>
+        <v>21.30797400871487</v>
       </c>
       <c r="N11" t="n">
-        <v>22.41007633685603</v>
+        <v>22.41007633685599</v>
       </c>
       <c r="O11" t="n">
-        <v>18.97233097084303</v>
+        <v>18.97233097084299</v>
       </c>
       <c r="P11" t="n">
-        <v>10.52940247294132</v>
+        <v>10.52940247294129</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>6.502976110201129</v>
+        <v>6.502976110201111</v>
       </c>
       <c r="L12" t="n">
-        <v>16.3475013090932</v>
+        <v>16.34750130909317</v>
       </c>
       <c r="M12" t="n">
-        <v>22.2540266810334</v>
+        <v>22.25402668103337</v>
       </c>
       <c r="N12" t="n">
-        <v>23.86249467691518</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="O12" t="n">
-        <v>19.41327970513237</v>
+        <v>19.41327970513234</v>
       </c>
       <c r="P12" t="n">
-        <v>6.105559026218184</v>
+        <v>6.105559026218084</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35573,13 +35573,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3903723299035953</v>
+        <v>0.3903723299035775</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9464120692640741</v>
+        <v>0.9464120692640563</v>
       </c>
       <c r="N13" t="n">
-        <v>2.213653919447061</v>
+        <v>2.213653919447047</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>6.787925067696165</v>
+        <v>6.787925067696158</v>
       </c>
       <c r="L14" t="n">
-        <v>14.47812865154195</v>
+        <v>14.47812865154194</v>
       </c>
       <c r="M14" t="n">
-        <v>21.30797400871491</v>
+        <v>21.3079740087149</v>
       </c>
       <c r="N14" t="n">
-        <v>22.41007633685603</v>
+        <v>22.41007633685602</v>
       </c>
       <c r="O14" t="n">
-        <v>18.97233097084303</v>
+        <v>18.97233097084302</v>
       </c>
       <c r="P14" t="n">
-        <v>10.52940247294132</v>
+        <v>10.52940247294131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>6.502976110201129</v>
+        <v>6.502976110201125</v>
       </c>
       <c r="L15" t="n">
-        <v>16.3475013090932</v>
+        <v>16.34750130909319</v>
       </c>
       <c r="M15" t="n">
-        <v>22.2540266810334</v>
+        <v>22.25402668103339</v>
       </c>
       <c r="N15" t="n">
-        <v>17.46025661497481</v>
+        <v>23.86249467691515</v>
       </c>
       <c r="O15" t="n">
-        <v>19.41327970513237</v>
+        <v>19.41327970513236</v>
       </c>
       <c r="P15" t="n">
-        <v>12.4075116354789</v>
+        <v>6.105559026218084</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1002854526796249</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,13 +35810,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3903723299035953</v>
+        <v>0.3903723299035917</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9464120692640741</v>
+        <v>0.9464120692640705</v>
       </c>
       <c r="N16" t="n">
-        <v>2.213653919447061</v>
+        <v>2.213653919447058</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>25.4770886297711</v>
       </c>
       <c r="N18" t="n">
-        <v>28.51644670869011</v>
+        <v>28.51644670869018</v>
       </c>
       <c r="O18" t="n">
         <v>22.43978899253369</v>
@@ -35983,7 +35983,7 @@
         <v>14.83655216039049</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.724034716243104</v>
+        <v>1.724034716243042</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9900459625660361</v>
+        <v>0.9900459625660396</v>
       </c>
       <c r="K20" t="n">
-        <v>9.812114391281007</v>
+        <v>9.812114391281014</v>
       </c>
       <c r="L20" t="n">
-        <v>18.22990292456154</v>
+        <v>18.22990292456155</v>
       </c>
       <c r="M20" t="n">
         <v>25.48254577696009</v>
       </c>
       <c r="N20" t="n">
-        <v>26.65219704069182</v>
+        <v>26.65219704069184</v>
       </c>
       <c r="O20" t="n">
-        <v>22.9780452590944</v>
+        <v>22.97804525909442</v>
       </c>
       <c r="P20" t="n">
-        <v>13.94818694248845</v>
+        <v>13.94818694248846</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.567364757857185</v>
+        <v>2.567364757857192</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>8.557043476769863</v>
+        <v>8.55704347676987</v>
       </c>
       <c r="L21" t="n">
-        <v>19.10944837110219</v>
+        <v>19.1094483711022</v>
       </c>
       <c r="M21" t="n">
-        <v>25.47708862977109</v>
+        <v>25.4770886297711</v>
       </c>
       <c r="N21" t="n">
         <v>28.51644670869018</v>
       </c>
       <c r="O21" t="n">
-        <v>22.43978899253368</v>
+        <v>22.43978899253369</v>
       </c>
       <c r="P21" t="n">
-        <v>14.83655216039048</v>
+        <v>14.83655216039049</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.7240347162431</v>
+        <v>1.724034716243056</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.975872558799857</v>
+        <v>1.97587255879986</v>
       </c>
       <c r="M22" t="n">
-        <v>2.618099757099358</v>
+        <v>2.618099757099362</v>
       </c>
       <c r="N22" t="n">
-        <v>3.845592610471325</v>
+        <v>3.845592610471328</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2178080624525727</v>
+        <v>0.2178080624525762</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9900459625660361</v>
+        <v>0.9900459625660396</v>
       </c>
       <c r="K23" t="n">
-        <v>9.812114391281007</v>
+        <v>9.812114391281014</v>
       </c>
       <c r="L23" t="n">
-        <v>18.22990292456154</v>
+        <v>18.22990292456155</v>
       </c>
       <c r="M23" t="n">
         <v>25.48254577696009</v>
       </c>
       <c r="N23" t="n">
-        <v>26.65219704069182</v>
+        <v>26.65219704069184</v>
       </c>
       <c r="O23" t="n">
-        <v>22.9780452590944</v>
+        <v>22.97804525909442</v>
       </c>
       <c r="P23" t="n">
-        <v>13.94818694248845</v>
+        <v>13.94818694248846</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.567364757857185</v>
+        <v>2.567364757857192</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>8.557043476769863</v>
+        <v>8.55704347676987</v>
       </c>
       <c r="L24" t="n">
-        <v>19.10944837110219</v>
+        <v>19.1094483711022</v>
       </c>
       <c r="M24" t="n">
-        <v>25.47708862977109</v>
+        <v>25.4770886297711</v>
       </c>
       <c r="N24" t="n">
         <v>28.51644670869018</v>
       </c>
       <c r="O24" t="n">
-        <v>22.43978899253368</v>
+        <v>22.43978899253369</v>
       </c>
       <c r="P24" t="n">
-        <v>14.83655216039048</v>
+        <v>14.83655216039049</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.724034716243013</v>
+        <v>1.724034716243104</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36521,16 +36521,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.975872558799857</v>
+        <v>1.97587255879986</v>
       </c>
       <c r="M25" t="n">
-        <v>2.618099757099358</v>
+        <v>2.618099757099362</v>
       </c>
       <c r="N25" t="n">
-        <v>3.845592610471325</v>
+        <v>3.845592610471328</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2178080624525727</v>
+        <v>0.2178080624525762</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9900459625660361</v>
+        <v>0.9900459625660396</v>
       </c>
       <c r="K26" t="n">
-        <v>9.812114391281007</v>
+        <v>9.812114391281014</v>
       </c>
       <c r="L26" t="n">
-        <v>18.22990292456154</v>
+        <v>18.22990292456155</v>
       </c>
       <c r="M26" t="n">
         <v>25.48254577696009</v>
       </c>
       <c r="N26" t="n">
-        <v>26.65219704069182</v>
+        <v>26.65219704069184</v>
       </c>
       <c r="O26" t="n">
-        <v>22.9780452590944</v>
+        <v>22.97804525909442</v>
       </c>
       <c r="P26" t="n">
-        <v>13.94818694248845</v>
+        <v>13.94818694248846</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.567364757857185</v>
+        <v>2.567364757857192</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>8.557043476769863</v>
+        <v>8.55704347676987</v>
       </c>
       <c r="L27" t="n">
-        <v>19.10944837110219</v>
+        <v>19.1094483711022</v>
       </c>
       <c r="M27" t="n">
-        <v>25.47708862977109</v>
+        <v>25.4770886297711</v>
       </c>
       <c r="N27" t="n">
         <v>28.51644670869018</v>
       </c>
       <c r="O27" t="n">
-        <v>22.43978899253363</v>
+        <v>22.43978899253369</v>
       </c>
       <c r="P27" t="n">
-        <v>14.83655216039048</v>
+        <v>14.83655216039049</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.7240347162431</v>
+        <v>1.724034716243104</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36758,16 +36758,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.975872558799857</v>
+        <v>1.97587255879986</v>
       </c>
       <c r="M28" t="n">
-        <v>2.618099757099358</v>
+        <v>2.618099757099362</v>
       </c>
       <c r="N28" t="n">
-        <v>3.845592610471325</v>
+        <v>3.845592610471328</v>
       </c>
       <c r="O28" t="n">
-        <v>0.2178080624525727</v>
+        <v>0.2178080624525762</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>8.557043476769863</v>
       </c>
       <c r="L30" t="n">
-        <v>19.10944837110208</v>
+        <v>19.10944837110219</v>
       </c>
       <c r="M30" t="n">
         <v>25.47708862977109</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9900459625660361</v>
+        <v>0.9900459625660396</v>
       </c>
       <c r="K32" t="n">
-        <v>9.812114391281007</v>
+        <v>9.812114391281014</v>
       </c>
       <c r="L32" t="n">
-        <v>18.22990292456154</v>
+        <v>18.22990292456155</v>
       </c>
       <c r="M32" t="n">
         <v>25.48254577696009</v>
       </c>
       <c r="N32" t="n">
-        <v>26.65219704069182</v>
+        <v>26.65219704069184</v>
       </c>
       <c r="O32" t="n">
-        <v>22.9780452590944</v>
+        <v>22.97804525909442</v>
       </c>
       <c r="P32" t="n">
-        <v>13.94818694248845</v>
+        <v>13.94818694248846</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.567364757857185</v>
+        <v>2.567364757857192</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>8.557043476769863</v>
+        <v>8.55704347676987</v>
       </c>
       <c r="L33" t="n">
-        <v>19.10944837110219</v>
+        <v>19.1094483711022</v>
       </c>
       <c r="M33" t="n">
-        <v>25.47708862977109</v>
+        <v>25.4770886297711</v>
       </c>
       <c r="N33" t="n">
         <v>28.51644670869018</v>
       </c>
       <c r="O33" t="n">
-        <v>22.43978899253368</v>
+        <v>22.43978899253369</v>
       </c>
       <c r="P33" t="n">
-        <v>14.83655216039048</v>
+        <v>14.83655216039049</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.7240347162431</v>
+        <v>1.724034716243056</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,16 +37232,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.975872558799857</v>
+        <v>1.97587255879986</v>
       </c>
       <c r="M34" t="n">
-        <v>2.618099757099358</v>
+        <v>2.618099757099362</v>
       </c>
       <c r="N34" t="n">
-        <v>3.845592610471325</v>
+        <v>3.845592610471328</v>
       </c>
       <c r="O34" t="n">
-        <v>0.2178080624525727</v>
+        <v>0.2178080624525762</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9900459625660361</v>
+        <v>0.9900459625660396</v>
       </c>
       <c r="K35" t="n">
-        <v>9.812114391281007</v>
+        <v>9.812114391281014</v>
       </c>
       <c r="L35" t="n">
-        <v>18.22990292456154</v>
+        <v>18.22990292456155</v>
       </c>
       <c r="M35" t="n">
         <v>25.48254577696009</v>
       </c>
       <c r="N35" t="n">
-        <v>26.65219704069182</v>
+        <v>26.65219704069184</v>
       </c>
       <c r="O35" t="n">
-        <v>22.9780452590944</v>
+        <v>22.97804525909442</v>
       </c>
       <c r="P35" t="n">
-        <v>13.94818694248845</v>
+        <v>13.94818694248846</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.567364757857185</v>
+        <v>2.567364757857192</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>8.557043476769863</v>
+        <v>8.55704347676987</v>
       </c>
       <c r="L36" t="n">
-        <v>19.10944837110219</v>
+        <v>19.1094483711022</v>
       </c>
       <c r="M36" t="n">
-        <v>25.47708862977109</v>
+        <v>25.4770886297711</v>
       </c>
       <c r="N36" t="n">
         <v>28.51644670869018</v>
       </c>
       <c r="O36" t="n">
-        <v>22.43978899253368</v>
+        <v>22.43978899253369</v>
       </c>
       <c r="P36" t="n">
-        <v>14.83655216039048</v>
+        <v>14.83655216039049</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.7240347162431</v>
+        <v>1.724034716243056</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37469,16 +37469,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.975872558799857</v>
+        <v>1.97587255879986</v>
       </c>
       <c r="M37" t="n">
-        <v>2.618099757099358</v>
+        <v>2.618099757099362</v>
       </c>
       <c r="N37" t="n">
-        <v>3.845592610471325</v>
+        <v>3.845592610471328</v>
       </c>
       <c r="O37" t="n">
-        <v>0.2178080624525727</v>
+        <v>0.2178080624525762</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9900459625660361</v>
+        <v>0.9900459625660396</v>
       </c>
       <c r="K38" t="n">
-        <v>9.812114391281007</v>
+        <v>9.812114391281014</v>
       </c>
       <c r="L38" t="n">
-        <v>18.22990292456154</v>
+        <v>18.22990292456155</v>
       </c>
       <c r="M38" t="n">
         <v>25.48254577696009</v>
       </c>
       <c r="N38" t="n">
-        <v>26.65219704069182</v>
+        <v>26.65219704069184</v>
       </c>
       <c r="O38" t="n">
-        <v>22.9780452590944</v>
+        <v>22.97804525909442</v>
       </c>
       <c r="P38" t="n">
-        <v>13.94818694248845</v>
+        <v>13.94818694248846</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.567364757857185</v>
+        <v>2.567364757857192</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>8.557043476769863</v>
+        <v>8.557043476769813</v>
       </c>
       <c r="L39" t="n">
-        <v>19.10944837110219</v>
+        <v>19.1094483711022</v>
       </c>
       <c r="M39" t="n">
-        <v>25.47708862977109</v>
+        <v>25.4770886297711</v>
       </c>
       <c r="N39" t="n">
         <v>28.51644670869018</v>
       </c>
       <c r="O39" t="n">
-        <v>22.43978899253368</v>
+        <v>22.43978899253369</v>
       </c>
       <c r="P39" t="n">
-        <v>14.83655216039048</v>
+        <v>14.83655216039049</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.7240347162431</v>
+        <v>1.724034716243104</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,16 +37706,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.975872558799857</v>
+        <v>1.97587255879986</v>
       </c>
       <c r="M40" t="n">
-        <v>2.618099757099358</v>
+        <v>2.618099757099362</v>
       </c>
       <c r="N40" t="n">
-        <v>3.845592610471325</v>
+        <v>3.845592610471328</v>
       </c>
       <c r="O40" t="n">
-        <v>0.2178080624525727</v>
+        <v>0.2178080624525762</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9900459625660361</v>
+        <v>0.9900459625660396</v>
       </c>
       <c r="K41" t="n">
-        <v>9.812114391281007</v>
+        <v>9.812114391281014</v>
       </c>
       <c r="L41" t="n">
-        <v>18.22990292456154</v>
+        <v>18.22990292456155</v>
       </c>
       <c r="M41" t="n">
         <v>25.48254577696009</v>
       </c>
       <c r="N41" t="n">
-        <v>26.65219704069182</v>
+        <v>26.65219704069184</v>
       </c>
       <c r="O41" t="n">
-        <v>22.9780452590944</v>
+        <v>22.97804525909442</v>
       </c>
       <c r="P41" t="n">
-        <v>13.94818694248845</v>
+        <v>13.94818694248846</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.567364757857185</v>
+        <v>2.567364757857192</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>8.557043476769863</v>
+        <v>8.55704347676987</v>
       </c>
       <c r="L42" t="n">
-        <v>19.10944837110219</v>
+        <v>19.1094483711022</v>
       </c>
       <c r="M42" t="n">
-        <v>25.47708862977109</v>
+        <v>25.4770886297711</v>
       </c>
       <c r="N42" t="n">
         <v>28.51644670869018</v>
       </c>
       <c r="O42" t="n">
-        <v>22.43978899253368</v>
+        <v>22.43978899253369</v>
       </c>
       <c r="P42" t="n">
-        <v>14.83655216039048</v>
+        <v>14.83655216039049</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.7240347162431</v>
+        <v>1.724034716243104</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,16 +37943,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.975872558799857</v>
+        <v>1.97587255879986</v>
       </c>
       <c r="M43" t="n">
-        <v>2.618099757099358</v>
+        <v>2.618099757099362</v>
       </c>
       <c r="N43" t="n">
-        <v>3.845592610471325</v>
+        <v>3.845592610471328</v>
       </c>
       <c r="O43" t="n">
-        <v>0.2178080624525727</v>
+        <v>0.2178080624525762</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9900459625660361</v>
+        <v>0.9900459625660396</v>
       </c>
       <c r="K44" t="n">
-        <v>9.812114391281007</v>
+        <v>9.812114391281014</v>
       </c>
       <c r="L44" t="n">
-        <v>18.22990292456154</v>
+        <v>18.22990292456155</v>
       </c>
       <c r="M44" t="n">
         <v>25.48254577696009</v>
       </c>
       <c r="N44" t="n">
-        <v>26.65219704069182</v>
+        <v>26.65219704069184</v>
       </c>
       <c r="O44" t="n">
-        <v>22.9780452590944</v>
+        <v>22.97804525909442</v>
       </c>
       <c r="P44" t="n">
-        <v>13.94818694248845</v>
+        <v>13.94818694248846</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.567364757857185</v>
+        <v>2.567364757857192</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>8.557043476769863</v>
+        <v>8.55704347676987</v>
       </c>
       <c r="L45" t="n">
-        <v>19.10944837110219</v>
+        <v>19.1094483711022</v>
       </c>
       <c r="M45" t="n">
-        <v>25.47708862977109</v>
+        <v>25.4770886297711</v>
       </c>
       <c r="N45" t="n">
         <v>28.51644670869018</v>
       </c>
       <c r="O45" t="n">
-        <v>22.43978899253368</v>
+        <v>22.43978899253369</v>
       </c>
       <c r="P45" t="n">
-        <v>14.83655216039048</v>
+        <v>14.83655216039049</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.7240347162431</v>
+        <v>1.724034716243104</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38180,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1.975872558799857</v>
+        <v>1.97587255879986</v>
       </c>
       <c r="M46" t="n">
-        <v>2.618099757099358</v>
+        <v>2.618099757099362</v>
       </c>
       <c r="N46" t="n">
-        <v>3.845592610471325</v>
+        <v>3.845592610471328</v>
       </c>
       <c r="O46" t="n">
-        <v>0.2178080624525727</v>
+        <v>0.2178080624525762</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
